--- a/工作代码/每日报表/以前文件/利用小时统计分析表.xlsx
+++ b/工作代码/每日报表/以前文件/利用小时统计分析表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PYthon_Study\工作代码\每日报表\以前文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEA1BFB-FE57-4494-9307-5675CCCFEDA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F09296F-D4F1-4936-8C6F-A0AF34388A28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1944" windowWidth="12720" windowHeight="5700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="12720" windowHeight="5700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="所有燃气电厂" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="信息披露" sheetId="6" r:id="rId7"/>
     <sheet name="考核" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -859,7 +859,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13:J13"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="18">
-        <v>7941.4</v>
+        <v>9606.9599999999991</v>
       </c>
       <c r="D13" s="18">
         <v>9250</v>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="K13" s="19">
         <f>SUM(C13:J13)</f>
-        <v>69766.962</v>
+        <v>71432.521999999997</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="1"/>
@@ -1382,25 +1382,41 @@
       <c r="B14" s="13">
         <v>12</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="C14" s="18">
+        <v>2000.9</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1573</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1207.3600000000001</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1443.83</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1555.05</v>
+      </c>
+      <c r="H14" s="18">
+        <v>2996.4</v>
+      </c>
+      <c r="I14" s="18">
+        <v>705.26499999999999</v>
+      </c>
+      <c r="J14" s="18">
+        <v>2451.33</v>
+      </c>
       <c r="K14" s="19">
         <f>SUM(C14:J14)</f>
-        <v>0</v>
+        <v>13933.135</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3658.69</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6152.9949999999999</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1915,7 +1931,7 @@
       </c>
       <c r="C25" s="11">
         <f t="shared" si="7"/>
-        <v>121049.56</v>
+        <v>122715.12</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="8"/>
@@ -1947,7 +1963,7 @@
       </c>
       <c r="K25" s="12">
         <f>K24+K13</f>
-        <v>1269350.476</v>
+        <v>1271016.0359999998</v>
       </c>
       <c r="M25" s="3">
         <f t="shared" si="1"/>
@@ -1965,47 +1981,47 @@
       </c>
       <c r="C26" s="11">
         <f t="shared" si="7"/>
-        <v>121049.56</v>
+        <v>124716.01999999999</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="8"/>
-        <v>166753.69400000002</v>
+        <v>168326.69400000002</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="9"/>
-        <v>63106.383999999998</v>
+        <v>64313.743999999999</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="10"/>
-        <v>114420.86900000001</v>
+        <v>115864.69900000001</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" si="11"/>
-        <v>128879.91699999999</v>
+        <v>130434.96699999999</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="12"/>
-        <v>286358.18599999999</v>
+        <v>289354.58600000001</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="12"/>
-        <v>294997.01</v>
+        <v>295702.27500000002</v>
       </c>
       <c r="J26" s="11">
         <f t="shared" si="12"/>
-        <v>93784.856</v>
+        <v>96236.186000000002</v>
       </c>
       <c r="K26" s="12">
         <f>K25+K14</f>
-        <v>1269350.476</v>
+        <v>1284949.1709999999</v>
       </c>
       <c r="M26" s="3">
         <f t="shared" si="1"/>
-        <v>156891.24</v>
+        <v>160549.93</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>675140.05200000003</v>
+        <v>681293.04700000002</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2581,7 +2597,7 @@
       </c>
       <c r="C38" s="14">
         <f>C13/C27</f>
-        <v>216.50490730643401</v>
+        <v>261.91275899672843</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" ref="D38:J38" si="31">D13/D27</f>
@@ -2613,7 +2629,7 @@
       </c>
       <c r="K38" s="15">
         <f>K13/K27</f>
-        <v>141.95279970700739</v>
+        <v>145.34166598844305</v>
       </c>
       <c r="L38" s="29"/>
       <c r="M38" s="15">
@@ -2633,49 +2649,49 @@
       </c>
       <c r="C39" s="14">
         <f>C14/C27</f>
-        <v>0</v>
+        <v>54.55016357688114</v>
       </c>
       <c r="D39" s="14">
         <f t="shared" ref="D39:J39" si="33">D14/D27</f>
-        <v>0</v>
+        <v>29.12962962962963</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>49.685596707818931</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>38.812634408602143</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>25.367862969004893</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>25.610256410256412</v>
       </c>
       <c r="I39" s="14">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>6.0279059829059829</v>
       </c>
       <c r="J39" s="14">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>55.712045454545454</v>
       </c>
       <c r="K39" s="15">
         <f>K14/K27</f>
-        <v>0</v>
+        <v>28.349342801334743</v>
       </c>
       <c r="L39" s="29"/>
       <c r="M39" s="15">
         <f>M14/M27</f>
-        <v>0</v>
+        <v>53.567935578330896</v>
       </c>
       <c r="N39" s="15"/>
       <c r="O39" s="15">
         <f t="shared" ref="O39" si="34">O14/O27</f>
-        <v>0</v>
+        <v>22.133075539568345</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3207,7 +3223,7 @@
       </c>
       <c r="C50" s="16">
         <f t="shared" ref="C50:K50" si="55">C25/C27</f>
-        <v>3300.1515812431844</v>
+        <v>3345.5594329334785</v>
       </c>
       <c r="D50" s="16">
         <f t="shared" si="55"/>
@@ -3239,7 +3255,7 @@
       </c>
       <c r="K50" s="17">
         <f t="shared" si="55"/>
-        <v>2582.7103361276145</v>
+        <v>2586.0992024090497</v>
       </c>
       <c r="L50" s="30"/>
       <c r="M50" s="17">
@@ -3259,49 +3275,49 @@
       </c>
       <c r="C51" s="16">
         <f t="shared" ref="C51:K51" si="57">C26/C27</f>
-        <v>3300.1515812431844</v>
+        <v>3400.1095965103596</v>
       </c>
       <c r="D51" s="16">
         <f t="shared" si="57"/>
-        <v>3088.0313703703705</v>
+        <v>3117.1610000000005</v>
       </c>
       <c r="E51" s="16">
         <f t="shared" si="57"/>
-        <v>2596.9705349794235</v>
+        <v>2646.6561316872426</v>
       </c>
       <c r="F51" s="16">
         <f t="shared" si="57"/>
-        <v>3075.8298118279567</v>
+        <v>3114.642446236559</v>
       </c>
       <c r="G51" s="16">
         <f t="shared" si="57"/>
-        <v>2102.4456280587274</v>
+        <v>2127.8134910277322</v>
       </c>
       <c r="H51" s="16">
         <f t="shared" si="57"/>
-        <v>2447.5058632478631</v>
+        <v>2473.1161196581197</v>
       </c>
       <c r="I51" s="16">
         <f t="shared" si="57"/>
-        <v>2521.341965811966</v>
+        <v>2527.3698717948719</v>
       </c>
       <c r="J51" s="16">
         <f t="shared" si="57"/>
-        <v>2131.4740000000002</v>
+        <v>2187.1860454545454</v>
       </c>
       <c r="K51" s="17">
         <f t="shared" si="57"/>
-        <v>2582.7103361276145</v>
+        <v>2614.4485452103845</v>
       </c>
       <c r="L51" s="30"/>
       <c r="M51" s="17">
         <f>M26/M27</f>
-        <v>2297.0898975109808</v>
+        <v>2350.6578330893117</v>
       </c>
       <c r="N51" s="17"/>
       <c r="O51" s="17">
         <f t="shared" ref="O51" si="58">O26/O27</f>
-        <v>2428.5613381294966</v>
+        <v>2450.6944136690649</v>
       </c>
     </row>
   </sheetData>
@@ -3668,7 +3684,7 @@
       </c>
       <c r="C13" s="18">
         <f>所有燃气电厂!C13</f>
-        <v>7941.4</v>
+        <v>9606.9599999999991</v>
       </c>
       <c r="D13" s="18">
         <f>所有燃气电厂!D13</f>
@@ -3688,7 +3704,7 @@
       </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>35868.26</v>
+        <v>37533.82</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4015,7 +4031,7 @@
       </c>
       <c r="C25" s="11">
         <f>SUM(C3:C13)</f>
-        <v>121049.56</v>
+        <v>122715.12</v>
       </c>
       <c r="D25" s="11">
         <f>SUM(D3:D13)</f>
@@ -4035,7 +4051,7 @@
       </c>
       <c r="H25" s="11">
         <f t="shared" si="0"/>
-        <v>594210.424</v>
+        <v>595875.98400000005</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4045,7 +4061,7 @@
       </c>
       <c r="C26" s="11">
         <f>SUM(C3:C14)</f>
-        <v>121049.56</v>
+        <v>122715.12</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(D3:D14)</f>
@@ -4065,7 +4081,7 @@
       </c>
       <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v>594210.424</v>
+        <v>595875.98400000005</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4403,7 +4419,7 @@
       </c>
       <c r="C38" s="14">
         <f t="shared" ref="C38:H38" si="11">C13/C27</f>
-        <v>216.50490730643401</v>
+        <v>261.91275899672843</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" si="11"/>
@@ -4423,7 +4439,7 @@
       </c>
       <c r="H38" s="14">
         <f t="shared" si="11"/>
-        <v>169.44567271352986</v>
+        <v>177.31396447467876</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4765,7 +4781,7 @@
       </c>
       <c r="C50" s="21">
         <f t="shared" ref="C50:H50" si="23">C25/C27</f>
-        <v>3300.1515812431844</v>
+        <v>3345.5594329334785</v>
       </c>
       <c r="D50" s="21">
         <f t="shared" si="23"/>
@@ -4785,7 +4801,7 @@
       </c>
       <c r="H50" s="21">
         <f t="shared" si="23"/>
-        <v>2807.1165154950868</v>
+        <v>2814.9848072562359</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -4795,7 +4811,7 @@
       </c>
       <c r="C51" s="21">
         <f t="shared" ref="C51:H51" si="24">C26/C27</f>
-        <v>3300.1515812431844</v>
+        <v>3345.5594329334785</v>
       </c>
       <c r="D51" s="21">
         <f t="shared" si="24"/>
@@ -4815,7 +4831,7 @@
       </c>
       <c r="H51" s="21">
         <f t="shared" si="24"/>
-        <v>2807.1165154950868</v>
+        <v>2814.9848072562359</v>
       </c>
     </row>
   </sheetData>
@@ -5090,7 +5106,7 @@
       </c>
       <c r="C13" s="18">
         <f>'110KV'!C13</f>
-        <v>7941.4</v>
+        <v>9606.9599999999991</v>
       </c>
       <c r="D13" s="18">
         <f>'110KV'!D13</f>
@@ -5102,7 +5118,7 @@
       </c>
       <c r="F13" s="18">
         <f t="shared" si="0"/>
-        <v>22861.260000000002</v>
+        <v>24526.82</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5356,7 +5372,7 @@
       </c>
       <c r="C25" s="11">
         <f>'110KV'!C25</f>
-        <v>121049.56</v>
+        <v>122715.12</v>
       </c>
       <c r="D25" s="11">
         <f>'110KV'!D25</f>
@@ -5368,7 +5384,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="0"/>
-        <v>416683.17099999997</v>
+        <v>418348.73100000003</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5378,7 +5394,7 @@
       </c>
       <c r="C26" s="11">
         <f>'110KV'!C26</f>
-        <v>121049.56</v>
+        <v>122715.12</v>
       </c>
       <c r="D26" s="11">
         <f>'110KV'!D26</f>
@@ -5390,7 +5406,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="0"/>
-        <v>416683.17099999997</v>
+        <v>418348.73100000003</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5644,7 +5660,7 @@
       </c>
       <c r="C38" s="14">
         <f>'110KV'!C38</f>
-        <v>216.50490730643401</v>
+        <v>261.91275899672843</v>
       </c>
       <c r="D38" s="14">
         <f>'110KV'!D38</f>
@@ -5656,7 +5672,7 @@
       </c>
       <c r="F38" s="14">
         <f>F13/F27</f>
-        <v>152.22572912504995</v>
+        <v>163.316153948595</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5910,7 +5926,7 @@
       </c>
       <c r="C50" s="21">
         <f>'110KV'!C50</f>
-        <v>3300.1515812431844</v>
+        <v>3345.5594329334785</v>
       </c>
       <c r="D50" s="21">
         <f>'110KV'!D50</f>
@@ -5922,7 +5938,7 @@
       </c>
       <c r="F50" s="21">
         <f>F25/F27</f>
-        <v>2774.5583366626711</v>
+        <v>2785.6487614862167</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5932,7 +5948,7 @@
       </c>
       <c r="C51" s="21">
         <f>'110KV'!C51</f>
-        <v>3300.1515812431844</v>
+        <v>3345.5594329334785</v>
       </c>
       <c r="D51" s="21">
         <f>'110KV'!D51</f>
@@ -5944,7 +5960,7 @@
       </c>
       <c r="F51" s="21">
         <f>F26/F27</f>
-        <v>2774.5583366626711</v>
+        <v>2785.6487614862167</v>
       </c>
     </row>
   </sheetData>
@@ -5968,7 +5984,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50:K50"/>
+      <selection pane="bottomRight" activeCell="C51" sqref="C51:K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6400,7 +6416,7 @@
       </c>
       <c r="C13" s="23">
         <f>所有燃气电厂!C13</f>
-        <v>7941.4</v>
+        <v>9606.9599999999991</v>
       </c>
       <c r="D13" s="23">
         <f>所有燃气电厂!D13</f>
@@ -6424,7 +6440,7 @@
       </c>
       <c r="I13" s="31">
         <f t="shared" si="0"/>
-        <v>46521.630000000005</v>
+        <v>48187.19</v>
       </c>
       <c r="K13">
         <f>所有燃气电厂!M13</f>
@@ -6438,35 +6454,35 @@
       </c>
       <c r="C14" s="23">
         <f>所有燃气电厂!C14</f>
-        <v>0</v>
+        <v>2000.9</v>
       </c>
       <c r="D14" s="23">
         <f>所有燃气电厂!D14</f>
-        <v>0</v>
+        <v>1573</v>
       </c>
       <c r="E14" s="23">
         <f>所有燃气电厂!E14</f>
-        <v>0</v>
+        <v>1207.3600000000001</v>
       </c>
       <c r="F14" s="23">
         <f>所有燃气电厂!F14</f>
-        <v>0</v>
+        <v>1443.83</v>
       </c>
       <c r="G14" s="23">
         <f>所有燃气电厂!G14</f>
-        <v>0</v>
+        <v>1555.05</v>
       </c>
       <c r="H14" s="23">
         <f>所有燃气电厂!J14</f>
-        <v>0</v>
+        <v>2451.33</v>
       </c>
       <c r="I14" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10231.470000000001</v>
       </c>
       <c r="K14">
         <f>所有燃气电厂!M14</f>
-        <v>0</v>
+        <v>3658.69</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6858,7 +6874,7 @@
       </c>
       <c r="C25" s="25">
         <f>所有燃气电厂!C25</f>
-        <v>121049.56</v>
+        <v>122715.12</v>
       </c>
       <c r="D25" s="25">
         <f>所有燃气电厂!D25</f>
@@ -6882,7 +6898,7 @@
       </c>
       <c r="I25" s="32">
         <f t="shared" si="1"/>
-        <v>687995.28</v>
+        <v>689660.84000000008</v>
       </c>
       <c r="K25">
         <f>所有燃气电厂!M25</f>
@@ -6896,35 +6912,35 @@
       </c>
       <c r="C26" s="25">
         <f>所有燃气电厂!C26</f>
-        <v>121049.56</v>
+        <v>124716.01999999999</v>
       </c>
       <c r="D26" s="25">
         <f>所有燃气电厂!D26</f>
-        <v>166753.69400000002</v>
+        <v>168326.69400000002</v>
       </c>
       <c r="E26" s="25">
         <f>所有燃气电厂!E26</f>
-        <v>63106.383999999998</v>
+        <v>64313.743999999999</v>
       </c>
       <c r="F26" s="25">
         <f>所有燃气电厂!F26</f>
-        <v>114420.86900000001</v>
+        <v>115864.69900000001</v>
       </c>
       <c r="G26" s="25">
         <f>所有燃气电厂!G26</f>
-        <v>128879.91699999999</v>
+        <v>130434.96699999999</v>
       </c>
       <c r="H26" s="25">
         <f>所有燃气电厂!J26</f>
-        <v>93784.856</v>
+        <v>96236.186000000002</v>
       </c>
       <c r="I26" s="32">
         <f t="shared" si="1"/>
-        <v>687995.28</v>
+        <v>699892.31</v>
       </c>
       <c r="K26">
         <f>所有燃气电厂!M26</f>
-        <v>156891.24</v>
+        <v>160549.93</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7364,7 +7380,7 @@
       </c>
       <c r="C38" s="38">
         <f>所有燃气电厂!C38</f>
-        <v>216.50490730643401</v>
+        <v>261.91275899672843</v>
       </c>
       <c r="D38" s="38">
         <f>所有燃气电厂!D38</f>
@@ -7388,7 +7404,7 @@
       </c>
       <c r="I38" s="39">
         <f>I13/I27</f>
-        <v>180.68055771322045</v>
+        <v>187.14925431101443</v>
       </c>
       <c r="J38" s="37"/>
       <c r="K38" s="37">
@@ -7403,36 +7419,36 @@
       </c>
       <c r="C39" s="38">
         <f>所有燃气电厂!C39</f>
-        <v>0</v>
+        <v>54.55016357688114</v>
       </c>
       <c r="D39" s="38">
         <f>所有燃气电厂!D39</f>
-        <v>0</v>
+        <v>29.12962962962963</v>
       </c>
       <c r="E39" s="38">
         <f>所有燃气电厂!E39</f>
-        <v>0</v>
+        <v>49.685596707818931</v>
       </c>
       <c r="F39" s="38">
         <f>所有燃气电厂!F39</f>
-        <v>0</v>
+        <v>38.812634408602143</v>
       </c>
       <c r="G39" s="38">
         <f>所有燃气电厂!G39</f>
-        <v>0</v>
+        <v>25.367862969004893</v>
       </c>
       <c r="H39" s="38">
         <f>所有燃气电厂!J39</f>
-        <v>0</v>
+        <v>55.712045454545454</v>
       </c>
       <c r="I39" s="39">
         <f>I14/I27</f>
-        <v>0</v>
+        <v>39.736950442752835</v>
       </c>
       <c r="J39" s="37"/>
       <c r="K39" s="37">
         <f>所有燃气电厂!M39</f>
-        <v>0</v>
+        <v>53.567935578330896</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -7834,7 +7850,7 @@
       </c>
       <c r="C50" s="35">
         <f>所有燃气电厂!C50</f>
-        <v>3300.1515812431844</v>
+        <v>3345.5594329334785</v>
       </c>
       <c r="D50" s="35">
         <f>所有燃气电厂!D50</f>
@@ -7858,7 +7874,7 @@
       </c>
       <c r="I50" s="36">
         <f>I25/I27</f>
-        <v>2672.0338667080937</v>
+        <v>2678.5025633058881</v>
       </c>
       <c r="J50" s="37"/>
       <c r="K50" s="37">
@@ -7873,36 +7889,36 @@
       </c>
       <c r="C51" s="35">
         <f>所有燃气电厂!C51</f>
-        <v>3300.1515812431844</v>
+        <v>3400.1095965103596</v>
       </c>
       <c r="D51" s="35">
         <f>所有燃气电厂!D51</f>
-        <v>3088.0313703703705</v>
+        <v>3117.1610000000005</v>
       </c>
       <c r="E51" s="35">
         <f>所有燃气电厂!E51</f>
-        <v>2596.9705349794235</v>
+        <v>2646.6561316872426</v>
       </c>
       <c r="F51" s="35">
         <f>所有燃气电厂!F51</f>
-        <v>3075.8298118279567</v>
+        <v>3114.642446236559</v>
       </c>
       <c r="G51" s="35">
         <f>所有燃气电厂!G51</f>
-        <v>2102.4456280587274</v>
+        <v>2127.8134910277322</v>
       </c>
       <c r="H51" s="35">
         <f>所有燃气电厂!J51</f>
-        <v>2131.4740000000002</v>
+        <v>2187.1860454545454</v>
       </c>
       <c r="I51" s="36">
         <f>I26/I27</f>
-        <v>2672.0338667080937</v>
+        <v>2718.2395137486405</v>
       </c>
       <c r="J51" s="37"/>
       <c r="K51" s="37">
         <f>所有燃气电厂!M51</f>
-        <v>2297.0898975109808</v>
+        <v>2350.6578330893117</v>
       </c>
     </row>
   </sheetData>
@@ -8503,7 +8519,7 @@
       </c>
       <c r="C13" s="3">
         <f>所有燃气电厂!C13</f>
-        <v>7941.4</v>
+        <v>9606.9599999999991</v>
       </c>
       <c r="D13" s="3">
         <f>所有燃气电厂!D13</f>
@@ -8535,7 +8551,7 @@
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>69766.962</v>
+        <v>71432.521999999997</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3">
@@ -8544,11 +8560,11 @@
       </c>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>46521.630000000005</v>
+        <v>48187.19</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="3"/>
-        <v>22861.260000000002</v>
+        <v>24526.82</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -8558,52 +8574,52 @@
       </c>
       <c r="C14" s="3">
         <f>所有燃气电厂!C14</f>
-        <v>0</v>
+        <v>2000.9</v>
       </c>
       <c r="D14" s="3">
         <f>所有燃气电厂!D14</f>
-        <v>0</v>
+        <v>1573</v>
       </c>
       <c r="E14" s="3">
         <f>所有燃气电厂!E14</f>
-        <v>0</v>
+        <v>1207.3600000000001</v>
       </c>
       <c r="F14" s="3">
         <f>所有燃气电厂!F14</f>
-        <v>0</v>
+        <v>1443.83</v>
       </c>
       <c r="G14" s="3">
         <f>所有燃气电厂!G14</f>
-        <v>0</v>
+        <v>1555.05</v>
       </c>
       <c r="H14" s="3">
         <f>所有燃气电厂!H14</f>
-        <v>0</v>
+        <v>2996.4</v>
       </c>
       <c r="I14" s="3">
         <f>所有燃气电厂!I14</f>
-        <v>0</v>
+        <v>705.26499999999999</v>
       </c>
       <c r="J14" s="3">
         <f>所有燃气电厂!J14</f>
-        <v>0</v>
+        <v>2451.33</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13933.135</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3658.69</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10231.470000000001</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5128.95</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -9165,7 +9181,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" si="6"/>
-        <v>116511.31199999999</v>
+        <v>118176.872</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="6"/>
@@ -9197,7 +9213,7 @@
       </c>
       <c r="K25" s="3">
         <f t="shared" si="1"/>
-        <v>1234216.2239999999</v>
+        <v>1235881.784</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3">
@@ -9206,11 +9222,11 @@
       </c>
       <c r="N25" s="3">
         <f t="shared" si="0"/>
-        <v>656936.08799999999</v>
+        <v>658601.64800000004</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="3"/>
-        <v>394427.38899999997</v>
+        <v>396092.94900000002</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -9220,52 +9236,52 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="6"/>
-        <v>116511.31199999999</v>
+        <v>120177.772</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="6"/>
-        <v>154174.00599999999</v>
+        <v>155747.00599999999</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="6"/>
-        <v>64561.904000000002</v>
+        <v>65769.263999999996</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="6"/>
-        <v>109884.755</v>
+        <v>111328.58500000001</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="6"/>
-        <v>123742.071</v>
+        <v>125297.121</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="6"/>
-        <v>289521.34599999996</v>
+        <v>292517.74599999998</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="6"/>
-        <v>287758.79000000004</v>
+        <v>288464.05500000005</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="6"/>
-        <v>88062.04</v>
+        <v>90513.37</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>1234216.2239999999</v>
+        <v>1249814.9190000002</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f t="shared" si="2"/>
-        <v>152623.94399999999</v>
+        <v>156282.63399999999</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>656936.08799999999</v>
+        <v>668833.11800000002</v>
       </c>
       <c r="O26" s="3">
         <f>C26+D26+G26</f>
-        <v>394427.38899999997</v>
+        <v>401221.89899999998</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
@@ -9881,7 +9897,7 @@
       </c>
       <c r="C38" s="28">
         <f>C13/C27</f>
-        <v>216.50490730643401</v>
+        <v>261.91275899672843</v>
       </c>
       <c r="D38" s="28">
         <f t="shared" ref="D38:J38" si="17">D13/D27</f>
@@ -9913,7 +9929,7 @@
       </c>
       <c r="K38" s="28">
         <f>K13/K27</f>
-        <v>141.95279970700739</v>
+        <v>145.34166598844305</v>
       </c>
       <c r="L38" s="28"/>
       <c r="M38" s="28">
@@ -9922,11 +9938,11 @@
       </c>
       <c r="N38" s="28">
         <f>N13/N27</f>
-        <v>180.68055771322045</v>
+        <v>187.14925431101443</v>
       </c>
       <c r="O38" s="28">
         <f>O13/O27</f>
-        <v>150.4228187919463</v>
+        <v>161.3818923542571</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -9936,52 +9952,52 @@
       </c>
       <c r="C39" s="28">
         <f>C14/C27</f>
-        <v>0</v>
+        <v>54.55016357688114</v>
       </c>
       <c r="D39" s="28">
         <f t="shared" ref="D39:J39" si="18">D14/D27</f>
-        <v>0</v>
+        <v>29.12962962962963</v>
       </c>
       <c r="E39" s="28">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>49.685596707818931</v>
       </c>
       <c r="F39" s="28">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>38.812634408602143</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>25.367862969004893</v>
       </c>
       <c r="H39" s="28">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>25.610256410256412</v>
       </c>
       <c r="I39" s="28">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>6.0279059829059829</v>
       </c>
       <c r="J39" s="28">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>55.712045454545454</v>
       </c>
       <c r="K39" s="28">
         <f>K14/K27</f>
-        <v>0</v>
+        <v>28.349342801334743</v>
       </c>
       <c r="L39" s="28"/>
       <c r="M39" s="28">
         <f>M14/M27</f>
-        <v>0</v>
+        <v>53.567935578330896</v>
       </c>
       <c r="N39" s="28">
         <f>N14/N27</f>
-        <v>0</v>
+        <v>39.736950442752835</v>
       </c>
       <c r="O39" s="28">
         <f>O14/O27</f>
-        <v>0</v>
+        <v>33.747532570075002</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -10543,7 +10559,7 @@
       </c>
       <c r="C50" s="28">
         <f>C25/C27</f>
-        <v>3176.4261723009813</v>
+        <v>3221.8340239912759</v>
       </c>
       <c r="D50" s="28">
         <f t="shared" ref="D50:K50" si="29">D25/D27</f>
@@ -10575,7 +10591,7 @@
       </c>
       <c r="K50" s="28">
         <f t="shared" si="29"/>
-        <v>2511.223699845365</v>
+        <v>2514.6125661268006</v>
       </c>
       <c r="L50" s="28"/>
       <c r="M50" s="28">
@@ -10584,11 +10600,11 @@
       </c>
       <c r="N50" s="28">
         <f>N25/N27</f>
-        <v>2551.4062762156282</v>
+        <v>2557.8749728134226</v>
       </c>
       <c r="O50" s="28">
         <f>O25/O27</f>
-        <v>2595.2585142781941</v>
+        <v>2606.2175878405051</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -10598,52 +10614,52 @@
       </c>
       <c r="C51" s="28">
         <f>C26/C27</f>
-        <v>3176.4261723009813</v>
+        <v>3276.3841875681569</v>
       </c>
       <c r="D51" s="28">
         <f t="shared" ref="D51:K51" si="30">D26/D27</f>
-        <v>2855.0741851851849</v>
+        <v>2884.2038148148149</v>
       </c>
       <c r="E51" s="28">
         <f t="shared" si="30"/>
-        <v>2656.8684773662553</v>
+        <v>2706.5540740740739</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="30"/>
-        <v>2953.8912634408603</v>
+        <v>2992.7038978494625</v>
       </c>
       <c r="G51" s="28">
         <f t="shared" si="30"/>
-        <v>2018.6308482871125</v>
+        <v>2043.9987112561175</v>
       </c>
       <c r="H51" s="28">
         <f t="shared" si="30"/>
-        <v>2474.5414188034183</v>
+        <v>2500.1516752136749</v>
       </c>
       <c r="I51" s="28">
         <f t="shared" si="30"/>
-        <v>2459.4768376068378</v>
+        <v>2465.5047435897441</v>
       </c>
       <c r="J51" s="28">
         <f t="shared" si="30"/>
-        <v>2001.4099999999999</v>
+        <v>2057.1220454545455</v>
       </c>
       <c r="K51" s="28">
         <f t="shared" si="30"/>
-        <v>2511.223699845365</v>
+        <v>2542.9619089281359</v>
       </c>
       <c r="L51" s="28"/>
       <c r="M51" s="28">
         <f>M26/M27</f>
-        <v>2234.6111859443631</v>
+        <v>2288.179121522694</v>
       </c>
       <c r="N51" s="28">
         <f>N26/N27</f>
-        <v>2551.4062762156282</v>
+        <v>2597.611923256175</v>
       </c>
       <c r="O51" s="28">
         <f>O26/O27</f>
-        <v>2595.2585142781941</v>
+        <v>2639.9651204105799</v>
       </c>
     </row>
   </sheetData>
@@ -11245,7 +11261,7 @@
       </c>
       <c r="C13" s="3">
         <f>所有燃气电厂!C13</f>
-        <v>7941.4</v>
+        <v>9606.9599999999991</v>
       </c>
       <c r="D13" s="3">
         <f>所有燃气电厂!D13</f>
@@ -11277,7 +11293,7 @@
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>69766.962</v>
+        <v>71432.521999999997</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3">
@@ -11286,11 +11302,11 @@
       </c>
       <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>46521.630000000005</v>
+        <v>48187.19</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" si="3"/>
-        <v>22861.260000000002</v>
+        <v>24526.82</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -11300,52 +11316,52 @@
       </c>
       <c r="C14" s="3">
         <f>所有燃气电厂!C14</f>
-        <v>0</v>
+        <v>2000.9</v>
       </c>
       <c r="D14" s="3">
         <f>所有燃气电厂!D14</f>
-        <v>0</v>
+        <v>1573</v>
       </c>
       <c r="E14" s="3">
         <f>所有燃气电厂!E14</f>
-        <v>0</v>
+        <v>1207.3600000000001</v>
       </c>
       <c r="F14" s="3">
         <f>所有燃气电厂!F14</f>
-        <v>0</v>
+        <v>1443.83</v>
       </c>
       <c r="G14" s="3">
         <f>所有燃气电厂!G14</f>
-        <v>0</v>
+        <v>1555.05</v>
       </c>
       <c r="H14" s="3">
         <f>所有燃气电厂!H14</f>
-        <v>0</v>
+        <v>2996.4</v>
       </c>
       <c r="I14" s="3">
         <f>所有燃气电厂!I14</f>
-        <v>0</v>
+        <v>705.26499999999999</v>
       </c>
       <c r="J14" s="3">
         <f>所有燃气电厂!J14</f>
-        <v>0</v>
+        <v>2451.33</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13933.135</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3658.69</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10231.470000000001</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5128.95</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -11907,7 +11923,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" si="6"/>
-        <v>125636.59199999999</v>
+        <v>127302.152</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="6"/>
@@ -11939,7 +11955,7 @@
       </c>
       <c r="K25" s="3">
         <f t="shared" si="1"/>
-        <v>1336387.5620000002</v>
+        <v>1338053.122</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3">
@@ -11948,11 +11964,11 @@
       </c>
       <c r="N25" s="3">
         <f t="shared" si="0"/>
-        <v>723620.26600000006</v>
+        <v>725285.826</v>
       </c>
       <c r="O25" s="3">
         <f t="shared" si="3"/>
-        <v>435752.397</v>
+        <v>437417.95699999999</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -11962,52 +11978,52 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="6"/>
-        <v>125636.59199999999</v>
+        <v>129303.052</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="6"/>
-        <v>169934.326</v>
+        <v>171507.326</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="6"/>
-        <v>73708.639999999999</v>
+        <v>74916</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="6"/>
-        <v>116224.29300000001</v>
+        <v>117668.12300000001</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="6"/>
-        <v>140181.47899999999</v>
+        <v>141736.52899999998</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="6"/>
-        <v>303816.28599999996</v>
+        <v>306812.68599999999</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="6"/>
-        <v>308951.01</v>
+        <v>309656.27500000002</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="6"/>
-        <v>97934.936000000002</v>
+        <v>100386.266</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>1336387.5620000002</v>
+        <v>1351986.257</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f t="shared" si="2"/>
-        <v>171643.576</v>
+        <v>175302.266</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>723620.26600000006</v>
+        <v>735517.29600000009</v>
       </c>
       <c r="O26" s="3">
         <f>C26+D26+G26</f>
-        <v>435752.397</v>
+        <v>442546.90700000001</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
@@ -12623,7 +12639,7 @@
       </c>
       <c r="C38" s="28">
         <f>C13/C27</f>
-        <v>216.50490730643401</v>
+        <v>261.91275899672843</v>
       </c>
       <c r="D38" s="28">
         <f t="shared" ref="D38:J38" si="17">D13/D27</f>
@@ -12655,7 +12671,7 @@
       </c>
       <c r="K38" s="28">
         <f>K13/K27</f>
-        <v>141.95279970700739</v>
+        <v>145.34166598844305</v>
       </c>
       <c r="L38" s="28"/>
       <c r="M38" s="28">
@@ -12664,11 +12680,11 @@
       </c>
       <c r="N38" s="28">
         <f>N13/N27</f>
-        <v>180.68055771322045</v>
+        <v>187.14925431101443</v>
       </c>
       <c r="O38" s="28">
         <f>O13/O27</f>
-        <v>150.4228187919463</v>
+        <v>161.3818923542571</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -12678,52 +12694,52 @@
       </c>
       <c r="C39" s="28">
         <f>C14/C27</f>
-        <v>0</v>
+        <v>54.55016357688114</v>
       </c>
       <c r="D39" s="28">
         <f t="shared" ref="D39:J39" si="18">D14/D27</f>
-        <v>0</v>
+        <v>29.12962962962963</v>
       </c>
       <c r="E39" s="28">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>49.685596707818931</v>
       </c>
       <c r="F39" s="28">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>38.812634408602143</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>25.367862969004893</v>
       </c>
       <c r="H39" s="28">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>25.610256410256412</v>
       </c>
       <c r="I39" s="28">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>6.0279059829059829</v>
       </c>
       <c r="J39" s="28">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>55.712045454545454</v>
       </c>
       <c r="K39" s="28">
         <f>K14/K27</f>
-        <v>0</v>
+        <v>28.349342801334743</v>
       </c>
       <c r="L39" s="28"/>
       <c r="M39" s="28">
         <f>M14/M27</f>
-        <v>0</v>
+        <v>53.567935578330896</v>
       </c>
       <c r="N39" s="28">
         <f>N14/N27</f>
-        <v>0</v>
+        <v>39.736950442752835</v>
       </c>
       <c r="O39" s="28">
         <f>O14/O27</f>
-        <v>0</v>
+        <v>33.747532570075002</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -13285,7 +13301,7 @@
       </c>
       <c r="C50" s="28">
         <f>C25/C27</f>
-        <v>3425.2069792802613</v>
+        <v>3470.6148309705563</v>
       </c>
       <c r="D50" s="28">
         <f t="shared" ref="D50:K50" si="29">D25/D27</f>
@@ -13317,7 +13333,7 @@
       </c>
       <c r="K50" s="28">
         <f t="shared" si="29"/>
-        <v>2719.1087368763738</v>
+        <v>2722.497603157809</v>
       </c>
       <c r="L50" s="28"/>
       <c r="M50" s="28">
@@ -13326,11 +13342,11 @@
       </c>
       <c r="N50" s="28">
         <f>N25/N27</f>
-        <v>2810.3940733260838</v>
+        <v>2816.8627699238773</v>
       </c>
       <c r="O50" s="28">
         <f>O25/O27</f>
-        <v>2867.1693446506115</v>
+        <v>2878.1284182129225</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -13340,52 +13356,52 @@
       </c>
       <c r="C51" s="28">
         <f>C26/C27</f>
-        <v>3425.2069792802613</v>
+        <v>3525.1649945474373</v>
       </c>
       <c r="D51" s="28">
         <f t="shared" ref="D51:K51" si="30">D26/D27</f>
-        <v>3146.9319629629631</v>
+        <v>3176.0615925925927</v>
       </c>
       <c r="E51" s="28">
         <f t="shared" si="30"/>
-        <v>3033.277366255144</v>
+        <v>3082.962962962963</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="30"/>
-        <v>3124.308951612903</v>
+        <v>3163.1215860215052</v>
       </c>
       <c r="G51" s="28">
         <f t="shared" si="30"/>
-        <v>2286.8104241435562</v>
+        <v>2312.1782871125611</v>
       </c>
       <c r="H51" s="28">
         <f t="shared" si="30"/>
-        <v>2596.7203931623931</v>
+        <v>2622.3306495726492</v>
       </c>
       <c r="I51" s="28">
         <f t="shared" si="30"/>
-        <v>2640.6069230769231</v>
+        <v>2646.6348290598294</v>
       </c>
       <c r="J51" s="28">
         <f t="shared" si="30"/>
-        <v>2225.7939999999999</v>
+        <v>2281.5060454545455</v>
       </c>
       <c r="K51" s="28">
         <f t="shared" si="30"/>
-        <v>2719.1087368763738</v>
+        <v>2750.8469459591438</v>
       </c>
       <c r="L51" s="28"/>
       <c r="M51" s="28">
         <f>M26/M27</f>
-        <v>2513.0831039531481</v>
+        <v>2566.651039531479</v>
       </c>
       <c r="N51" s="28">
         <f>N26/N27</f>
-        <v>2810.3940733260838</v>
+        <v>2856.5997203666307</v>
       </c>
       <c r="O51" s="28">
         <f>O26/O27</f>
-        <v>2867.1693446506115</v>
+        <v>2911.8759507829973</v>
       </c>
     </row>
   </sheetData>
@@ -15271,6 +15287,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15611,7 +15628,7 @@
       </c>
       <c r="C13" s="18">
         <f>所有燃气电厂!C13</f>
-        <v>7941.4</v>
+        <v>9606.9599999999991</v>
       </c>
       <c r="D13" s="18">
         <f>所有燃气电厂!D13</f>
@@ -15631,7 +15648,7 @@
       </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>46521.630000000005</v>
+        <v>48187.19</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -15643,13 +15660,13 @@
       <c r="D14" s="18"/>
       <c r="E14" s="18">
         <f>所有燃气电厂!M14</f>
-        <v>0</v>
+        <v>3658.69</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3658.69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -15961,7 +15978,7 @@
       </c>
       <c r="C25" s="11">
         <f>SUM(C3:C13)</f>
-        <v>119184.74309999999</v>
+        <v>120850.30309999999</v>
       </c>
       <c r="D25" s="11">
         <f>SUM(D3:D13)</f>
@@ -15981,7 +15998,7 @@
       </c>
       <c r="H25" s="11">
         <f t="shared" si="0"/>
-        <v>686130.46309999994</v>
+        <v>687796.02309999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -15991,7 +16008,7 @@
       </c>
       <c r="C26" s="11">
         <f>SUM(C3:C14)</f>
-        <v>119184.74309999999</v>
+        <v>120850.30309999999</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(D3:D14)</f>
@@ -15999,7 +16016,7 @@
       </c>
       <c r="E26" s="10">
         <f>所有燃气电厂!M26</f>
-        <v>156891.24</v>
+        <v>160549.93</v>
       </c>
       <c r="F26" s="11">
         <f>SUM(F3:F14)</f>
@@ -16011,7 +16028,7 @@
       </c>
       <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v>686130.46309999994</v>
+        <v>691454.71310000005</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -16350,7 +16367,7 @@
       </c>
       <c r="C38" s="14">
         <f t="shared" ref="C38:H38" si="11">C13/C27</f>
-        <v>216.50490730643401</v>
+        <v>261.91275899672843</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" si="11"/>
@@ -16370,7 +16387,7 @@
       </c>
       <c r="H38" s="14">
         <f t="shared" si="11"/>
-        <v>180.68055771322045</v>
+        <v>187.14925431101443</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -16388,7 +16405,7 @@
       </c>
       <c r="E39" s="14">
         <f>所有燃气电厂!M39</f>
-        <v>0</v>
+        <v>53.567935578330896</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="12"/>
@@ -16400,7 +16417,7 @@
       </c>
       <c r="H39" s="14">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>14.209608513282584</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -16712,7 +16729,7 @@
       </c>
       <c r="C50" s="21">
         <f t="shared" ref="C50:H50" si="23">C25/C27</f>
-        <v>3249.3114258451469</v>
+        <v>3294.7192775354415</v>
       </c>
       <c r="D50" s="21">
         <f t="shared" si="23"/>
@@ -16732,7 +16749,7 @@
       </c>
       <c r="H50" s="21">
         <f t="shared" si="23"/>
-        <v>2664.7912967997509</v>
+        <v>2671.2599933975453</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -16742,7 +16759,7 @@
       </c>
       <c r="C51" s="21">
         <f t="shared" ref="C51:H51" si="24">C26/C27</f>
-        <v>3249.3114258451469</v>
+        <v>3294.7192775354415</v>
       </c>
       <c r="D51" s="21">
         <f t="shared" si="24"/>
@@ -16750,7 +16767,7 @@
       </c>
       <c r="E51" s="42">
         <f>所有燃气电厂!M51</f>
-        <v>2297.0898975109808</v>
+        <v>2350.6578330893117</v>
       </c>
       <c r="F51" s="21">
         <f t="shared" si="24"/>
@@ -16762,7 +16779,7 @@
       </c>
       <c r="H51" s="21">
         <f t="shared" si="24"/>
-        <v>2664.7912967997509</v>
+        <v>2685.4696019108283</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/以前文件/利用小时统计分析表.xlsx
+++ b/工作代码/每日报表/以前文件/利用小时统计分析表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PYthon_Study\工作代码\每日报表\以前文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F09296F-D4F1-4936-8C6F-A0AF34388A28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5BD801-4F12-430C-AC36-CBC253A682F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="12720" windowHeight="5700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2856" windowWidth="12720" windowHeight="5700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="所有燃气电厂" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,14 @@
     <sheet name="信息披露" sheetId="6" r:id="rId7"/>
     <sheet name="考核" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -859,7 +866,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1383,40 +1390,40 @@
         <v>12</v>
       </c>
       <c r="C14" s="18">
-        <v>2000.9</v>
+        <v>4888.1000000000004</v>
       </c>
       <c r="D14" s="18">
-        <v>1573</v>
+        <v>3771</v>
       </c>
       <c r="E14" s="18">
-        <v>1207.3600000000001</v>
+        <v>2787.31</v>
       </c>
       <c r="F14" s="18">
-        <v>1443.83</v>
+        <v>2946.09</v>
       </c>
       <c r="G14" s="18">
-        <v>1555.05</v>
+        <v>3708.56</v>
       </c>
       <c r="H14" s="18">
-        <v>2996.4</v>
+        <v>9936.2999999999993</v>
       </c>
       <c r="I14" s="18">
-        <v>705.26499999999999</v>
+        <v>13953.5</v>
       </c>
       <c r="J14" s="18">
-        <v>2451.33</v>
+        <v>5436.55</v>
       </c>
       <c r="K14" s="19">
         <f>SUM(C14:J14)</f>
-        <v>13933.135</v>
+        <v>47427.41</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>3658.69</v>
+        <v>8223.86</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>6152.9949999999999</v>
+        <v>29326.35</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1981,47 +1988,47 @@
       </c>
       <c r="C26" s="11">
         <f t="shared" si="7"/>
-        <v>124716.01999999999</v>
+        <v>127603.22</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="8"/>
-        <v>168326.69400000002</v>
+        <v>170524.69400000002</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="9"/>
-        <v>64313.743999999999</v>
+        <v>65893.694000000003</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="10"/>
-        <v>115864.69900000001</v>
+        <v>117366.959</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" si="11"/>
-        <v>130434.96699999999</v>
+        <v>132588.47699999998</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="12"/>
-        <v>289354.58600000001</v>
+        <v>296294.48599999998</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="12"/>
-        <v>295702.27500000002</v>
+        <v>308950.51</v>
       </c>
       <c r="J26" s="11">
         <f t="shared" si="12"/>
-        <v>96236.186000000002</v>
+        <v>99221.406000000003</v>
       </c>
       <c r="K26" s="12">
         <f>K25+K14</f>
-        <v>1284949.1709999999</v>
+        <v>1318443.4459999998</v>
       </c>
       <c r="M26" s="3">
         <f t="shared" si="1"/>
-        <v>160549.93</v>
+        <v>165115.1</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>681293.04700000002</v>
+        <v>704466.402</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2649,49 +2656,49 @@
       </c>
       <c r="C39" s="14">
         <f>C14/C27</f>
-        <v>54.55016357688114</v>
+        <v>133.26335877862596</v>
       </c>
       <c r="D39" s="14">
         <f t="shared" ref="D39:J39" si="33">D14/D27</f>
-        <v>29.12962962962963</v>
+        <v>69.833333333333329</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" si="33"/>
-        <v>49.685596707818931</v>
+        <v>114.70411522633745</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="33"/>
-        <v>38.812634408602143</v>
+        <v>79.195967741935476</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="33"/>
-        <v>25.367862969004893</v>
+        <v>60.498531810766721</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" si="33"/>
-        <v>25.610256410256412</v>
+        <v>84.925641025641013</v>
       </c>
       <c r="I39" s="14">
         <f t="shared" si="33"/>
-        <v>6.0279059829059829</v>
+        <v>119.26068376068376</v>
       </c>
       <c r="J39" s="14">
         <f t="shared" si="33"/>
-        <v>55.712045454545454</v>
+        <v>123.55795454545455</v>
       </c>
       <c r="K39" s="15">
         <f>K14/K27</f>
-        <v>28.349342801334743</v>
+        <v>96.499165784976</v>
       </c>
       <c r="L39" s="29"/>
       <c r="M39" s="15">
         <f>M14/M27</f>
-        <v>53.567935578330896</v>
+        <v>120.40790629575405</v>
       </c>
       <c r="N39" s="15"/>
       <c r="O39" s="15">
         <f t="shared" ref="O39" si="34">O14/O27</f>
-        <v>22.133075539568345</v>
+        <v>105.49046762589927</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3275,49 +3282,49 @@
       </c>
       <c r="C51" s="16">
         <f t="shared" ref="C51:K51" si="57">C26/C27</f>
-        <v>3400.1095965103596</v>
+        <v>3478.8227917121048</v>
       </c>
       <c r="D51" s="16">
         <f t="shared" si="57"/>
-        <v>3117.1610000000005</v>
+        <v>3157.864703703704</v>
       </c>
       <c r="E51" s="16">
         <f t="shared" si="57"/>
-        <v>2646.6561316872426</v>
+        <v>2711.6746502057613</v>
       </c>
       <c r="F51" s="16">
         <f t="shared" si="57"/>
-        <v>3114.642446236559</v>
+        <v>3155.0257795698922</v>
       </c>
       <c r="G51" s="16">
         <f t="shared" si="57"/>
-        <v>2127.8134910277322</v>
+        <v>2162.9441598694943</v>
       </c>
       <c r="H51" s="16">
         <f t="shared" si="57"/>
-        <v>2473.1161196581197</v>
+        <v>2532.4315042735043</v>
       </c>
       <c r="I51" s="16">
         <f t="shared" si="57"/>
-        <v>2527.3698717948719</v>
+        <v>2640.6026495726496</v>
       </c>
       <c r="J51" s="16">
         <f t="shared" si="57"/>
-        <v>2187.1860454545454</v>
+        <v>2255.0319545454545</v>
       </c>
       <c r="K51" s="17">
         <f t="shared" si="57"/>
-        <v>2614.4485452103845</v>
+        <v>2682.5983681940256</v>
       </c>
       <c r="L51" s="30"/>
       <c r="M51" s="17">
         <f>M26/M27</f>
-        <v>2350.6578330893117</v>
+        <v>2417.4978038067352</v>
       </c>
       <c r="N51" s="17"/>
       <c r="O51" s="17">
         <f t="shared" ref="O51" si="58">O26/O27</f>
-        <v>2450.6944136690649</v>
+        <v>2534.0518057553959</v>
       </c>
     </row>
   </sheetData>
@@ -5981,10 +5988,10 @@
   <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C51" sqref="C51:K51"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6454,35 +6461,35 @@
       </c>
       <c r="C14" s="23">
         <f>所有燃气电厂!C14</f>
-        <v>2000.9</v>
+        <v>4888.1000000000004</v>
       </c>
       <c r="D14" s="23">
         <f>所有燃气电厂!D14</f>
-        <v>1573</v>
+        <v>3771</v>
       </c>
       <c r="E14" s="23">
         <f>所有燃气电厂!E14</f>
-        <v>1207.3600000000001</v>
+        <v>2787.31</v>
       </c>
       <c r="F14" s="23">
         <f>所有燃气电厂!F14</f>
-        <v>1443.83</v>
+        <v>2946.09</v>
       </c>
       <c r="G14" s="23">
         <f>所有燃气电厂!G14</f>
-        <v>1555.05</v>
+        <v>3708.56</v>
       </c>
       <c r="H14" s="23">
         <f>所有燃气电厂!J14</f>
-        <v>2451.33</v>
+        <v>5436.55</v>
       </c>
       <c r="I14" s="31">
         <f t="shared" si="0"/>
-        <v>10231.470000000001</v>
+        <v>23537.61</v>
       </c>
       <c r="K14">
         <f>所有燃气电厂!M14</f>
-        <v>3658.69</v>
+        <v>8223.86</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6912,35 +6919,35 @@
       </c>
       <c r="C26" s="25">
         <f>所有燃气电厂!C26</f>
-        <v>124716.01999999999</v>
+        <v>127603.22</v>
       </c>
       <c r="D26" s="25">
         <f>所有燃气电厂!D26</f>
-        <v>168326.69400000002</v>
+        <v>170524.69400000002</v>
       </c>
       <c r="E26" s="25">
         <f>所有燃气电厂!E26</f>
-        <v>64313.743999999999</v>
+        <v>65893.694000000003</v>
       </c>
       <c r="F26" s="25">
         <f>所有燃气电厂!F26</f>
-        <v>115864.69900000001</v>
+        <v>117366.959</v>
       </c>
       <c r="G26" s="25">
         <f>所有燃气电厂!G26</f>
-        <v>130434.96699999999</v>
+        <v>132588.47699999998</v>
       </c>
       <c r="H26" s="25">
         <f>所有燃气电厂!J26</f>
-        <v>96236.186000000002</v>
+        <v>99221.406000000003</v>
       </c>
       <c r="I26" s="32">
         <f t="shared" si="1"/>
-        <v>699892.31</v>
+        <v>713198.45</v>
       </c>
       <c r="K26">
         <f>所有燃气电厂!M26</f>
-        <v>160549.93</v>
+        <v>165115.1</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7419,36 +7426,36 @@
       </c>
       <c r="C39" s="38">
         <f>所有燃气电厂!C39</f>
-        <v>54.55016357688114</v>
+        <v>133.26335877862596</v>
       </c>
       <c r="D39" s="38">
         <f>所有燃气电厂!D39</f>
-        <v>29.12962962962963</v>
+        <v>69.833333333333329</v>
       </c>
       <c r="E39" s="38">
         <f>所有燃气电厂!E39</f>
-        <v>49.685596707818931</v>
+        <v>114.70411522633745</v>
       </c>
       <c r="F39" s="38">
         <f>所有燃气电厂!F39</f>
-        <v>38.812634408602143</v>
+        <v>79.195967741935476</v>
       </c>
       <c r="G39" s="38">
         <f>所有燃气电厂!G39</f>
-        <v>25.367862969004893</v>
+        <v>60.498531810766721</v>
       </c>
       <c r="H39" s="38">
         <f>所有燃气电厂!J39</f>
-        <v>55.712045454545454</v>
+        <v>123.55795454545455</v>
       </c>
       <c r="I39" s="39">
         <f>I14/I27</f>
-        <v>39.736950442752835</v>
+        <v>91.415294391797417</v>
       </c>
       <c r="J39" s="37"/>
       <c r="K39" s="37">
         <f>所有燃气电厂!M39</f>
-        <v>53.567935578330896</v>
+        <v>120.40790629575405</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -7889,36 +7896,36 @@
       </c>
       <c r="C51" s="35">
         <f>所有燃气电厂!C51</f>
-        <v>3400.1095965103596</v>
+        <v>3478.8227917121048</v>
       </c>
       <c r="D51" s="35">
         <f>所有燃气电厂!D51</f>
-        <v>3117.1610000000005</v>
+        <v>3157.864703703704</v>
       </c>
       <c r="E51" s="35">
         <f>所有燃气电厂!E51</f>
-        <v>2646.6561316872426</v>
+        <v>2711.6746502057613</v>
       </c>
       <c r="F51" s="35">
         <f>所有燃气电厂!F51</f>
-        <v>3114.642446236559</v>
+        <v>3155.0257795698922</v>
       </c>
       <c r="G51" s="35">
         <f>所有燃气电厂!G51</f>
-        <v>2127.8134910277322</v>
+        <v>2162.9441598694943</v>
       </c>
       <c r="H51" s="35">
         <f>所有燃气电厂!J51</f>
-        <v>2187.1860454545454</v>
+        <v>2255.0319545454545</v>
       </c>
       <c r="I51" s="36">
         <f>I26/I27</f>
-        <v>2718.2395137486405</v>
+        <v>2769.9178576976847</v>
       </c>
       <c r="J51" s="37"/>
       <c r="K51" s="37">
         <f>所有燃气电厂!M51</f>
-        <v>2350.6578330893117</v>
+        <v>2417.4978038067352</v>
       </c>
     </row>
   </sheetData>
@@ -8574,52 +8581,52 @@
       </c>
       <c r="C14" s="3">
         <f>所有燃气电厂!C14</f>
-        <v>2000.9</v>
+        <v>4888.1000000000004</v>
       </c>
       <c r="D14" s="3">
         <f>所有燃气电厂!D14</f>
-        <v>1573</v>
+        <v>3771</v>
       </c>
       <c r="E14" s="3">
         <f>所有燃气电厂!E14</f>
-        <v>1207.3600000000001</v>
+        <v>2787.31</v>
       </c>
       <c r="F14" s="3">
         <f>所有燃气电厂!F14</f>
-        <v>1443.83</v>
+        <v>2946.09</v>
       </c>
       <c r="G14" s="3">
         <f>所有燃气电厂!G14</f>
-        <v>1555.05</v>
+        <v>3708.56</v>
       </c>
       <c r="H14" s="3">
         <f>所有燃气电厂!H14</f>
-        <v>2996.4</v>
+        <v>9936.2999999999993</v>
       </c>
       <c r="I14" s="3">
         <f>所有燃气电厂!I14</f>
-        <v>705.26499999999999</v>
+        <v>13953.5</v>
       </c>
       <c r="J14" s="3">
         <f>所有燃气电厂!J14</f>
-        <v>2451.33</v>
+        <v>5436.55</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>13933.135</v>
+        <v>47427.41</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3">
         <f t="shared" si="2"/>
-        <v>3658.69</v>
+        <v>8223.86</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="0"/>
-        <v>10231.470000000001</v>
+        <v>23537.61</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="3"/>
-        <v>5128.95</v>
+        <v>12367.66</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -9236,52 +9243,52 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="6"/>
-        <v>120177.772</v>
+        <v>123064.97200000001</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="6"/>
-        <v>155747.00599999999</v>
+        <v>157945.00599999999</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="6"/>
-        <v>65769.263999999996</v>
+        <v>67349.214000000007</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="6"/>
-        <v>111328.58500000001</v>
+        <v>112830.845</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="6"/>
-        <v>125297.121</v>
+        <v>127450.63099999999</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="6"/>
-        <v>292517.74599999998</v>
+        <v>299457.64599999995</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="6"/>
-        <v>288464.05500000005</v>
+        <v>301712.29000000004</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="6"/>
-        <v>90513.37</v>
+        <v>93498.59</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>1249814.9190000002</v>
+        <v>1283309.1940000001</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f t="shared" si="2"/>
-        <v>156282.63399999999</v>
+        <v>160847.804</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>668833.11800000002</v>
+        <v>682139.25800000003</v>
       </c>
       <c r="O26" s="3">
         <f>C26+D26+G26</f>
-        <v>401221.89899999998</v>
+        <v>408460.609</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
@@ -9952,52 +9959,52 @@
       </c>
       <c r="C39" s="28">
         <f>C14/C27</f>
-        <v>54.55016357688114</v>
+        <v>133.26335877862596</v>
       </c>
       <c r="D39" s="28">
         <f t="shared" ref="D39:J39" si="18">D14/D27</f>
-        <v>29.12962962962963</v>
+        <v>69.833333333333329</v>
       </c>
       <c r="E39" s="28">
         <f t="shared" si="18"/>
-        <v>49.685596707818931</v>
+        <v>114.70411522633745</v>
       </c>
       <c r="F39" s="28">
         <f t="shared" si="18"/>
-        <v>38.812634408602143</v>
+        <v>79.195967741935476</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" si="18"/>
-        <v>25.367862969004893</v>
+        <v>60.498531810766721</v>
       </c>
       <c r="H39" s="28">
         <f t="shared" si="18"/>
-        <v>25.610256410256412</v>
+        <v>84.925641025641013</v>
       </c>
       <c r="I39" s="28">
         <f t="shared" si="18"/>
-        <v>6.0279059829059829</v>
+        <v>119.26068376068376</v>
       </c>
       <c r="J39" s="28">
         <f t="shared" si="18"/>
-        <v>55.712045454545454</v>
+        <v>123.55795454545455</v>
       </c>
       <c r="K39" s="28">
         <f>K14/K27</f>
-        <v>28.349342801334743</v>
+        <v>96.499165784976</v>
       </c>
       <c r="L39" s="28"/>
       <c r="M39" s="28">
         <f>M14/M27</f>
-        <v>53.567935578330896</v>
+        <v>120.40790629575405</v>
       </c>
       <c r="N39" s="28">
         <f>N14/N27</f>
-        <v>39.736950442752835</v>
+        <v>91.415294391797417</v>
       </c>
       <c r="O39" s="28">
         <f>O14/O27</f>
-        <v>33.747532570075002</v>
+        <v>81.37689169627582</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -10614,52 +10621,52 @@
       </c>
       <c r="C51" s="28">
         <f>C26/C27</f>
-        <v>3276.3841875681569</v>
+        <v>3355.0973827699022</v>
       </c>
       <c r="D51" s="28">
         <f t="shared" ref="D51:K51" si="30">D26/D27</f>
-        <v>2884.2038148148149</v>
+        <v>2924.9075185185184</v>
       </c>
       <c r="E51" s="28">
         <f t="shared" si="30"/>
-        <v>2706.5540740740739</v>
+        <v>2771.5725925925926</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="30"/>
-        <v>2992.7038978494625</v>
+        <v>3033.0872311827957</v>
       </c>
       <c r="G51" s="28">
         <f t="shared" si="30"/>
-        <v>2043.9987112561175</v>
+        <v>2079.1293800978792</v>
       </c>
       <c r="H51" s="28">
         <f t="shared" si="30"/>
-        <v>2500.1516752136749</v>
+        <v>2559.4670598290595</v>
       </c>
       <c r="I51" s="28">
         <f t="shared" si="30"/>
-        <v>2465.5047435897441</v>
+        <v>2578.7375213675218</v>
       </c>
       <c r="J51" s="28">
         <f t="shared" si="30"/>
-        <v>2057.1220454545455</v>
+        <v>2124.9679545454546</v>
       </c>
       <c r="K51" s="28">
         <f t="shared" si="30"/>
-        <v>2542.9619089281359</v>
+        <v>2611.111731911777</v>
       </c>
       <c r="L51" s="28"/>
       <c r="M51" s="28">
         <f>M26/M27</f>
-        <v>2288.179121522694</v>
+        <v>2355.0190922401171</v>
       </c>
       <c r="N51" s="28">
         <f>N26/N27</f>
-        <v>2597.611923256175</v>
+        <v>2649.2902672052196</v>
       </c>
       <c r="O51" s="28">
         <f>O26/O27</f>
-        <v>2639.9651204105799</v>
+        <v>2687.5944795367809</v>
       </c>
     </row>
   </sheetData>
@@ -11316,52 +11323,52 @@
       </c>
       <c r="C14" s="3">
         <f>所有燃气电厂!C14</f>
-        <v>2000.9</v>
+        <v>4888.1000000000004</v>
       </c>
       <c r="D14" s="3">
         <f>所有燃气电厂!D14</f>
-        <v>1573</v>
+        <v>3771</v>
       </c>
       <c r="E14" s="3">
         <f>所有燃气电厂!E14</f>
-        <v>1207.3600000000001</v>
+        <v>2787.31</v>
       </c>
       <c r="F14" s="3">
         <f>所有燃气电厂!F14</f>
-        <v>1443.83</v>
+        <v>2946.09</v>
       </c>
       <c r="G14" s="3">
         <f>所有燃气电厂!G14</f>
-        <v>1555.05</v>
+        <v>3708.56</v>
       </c>
       <c r="H14" s="3">
         <f>所有燃气电厂!H14</f>
-        <v>2996.4</v>
+        <v>9936.2999999999993</v>
       </c>
       <c r="I14" s="3">
         <f>所有燃气电厂!I14</f>
-        <v>705.26499999999999</v>
+        <v>13953.5</v>
       </c>
       <c r="J14" s="3">
         <f>所有燃气电厂!J14</f>
-        <v>2451.33</v>
+        <v>5436.55</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>13933.135</v>
+        <v>47427.41</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3">
         <f t="shared" si="2"/>
-        <v>3658.69</v>
+        <v>8223.86</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="0"/>
-        <v>10231.470000000001</v>
+        <v>23537.61</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="3"/>
-        <v>5128.95</v>
+        <v>12367.66</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -11978,52 +11985,52 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="6"/>
-        <v>129303.052</v>
+        <v>132190.25200000001</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="6"/>
-        <v>171507.326</v>
+        <v>173705.326</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="6"/>
-        <v>74916</v>
+        <v>76495.95</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="6"/>
-        <v>117668.12300000001</v>
+        <v>119170.383</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="6"/>
-        <v>141736.52899999998</v>
+        <v>143890.03899999999</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="6"/>
-        <v>306812.68599999999</v>
+        <v>313752.58599999995</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="6"/>
-        <v>309656.27500000002</v>
+        <v>322904.51</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="6"/>
-        <v>100386.266</v>
+        <v>103371.486</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>1351986.257</v>
+        <v>1385480.5319999999</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f t="shared" si="2"/>
-        <v>175302.266</v>
+        <v>179867.43599999999</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>735517.29600000009</v>
+        <v>748823.43599999999</v>
       </c>
       <c r="O26" s="3">
         <f>C26+D26+G26</f>
-        <v>442546.90700000001</v>
+        <v>449785.61699999997</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
@@ -12694,52 +12701,52 @@
       </c>
       <c r="C39" s="28">
         <f>C14/C27</f>
-        <v>54.55016357688114</v>
+        <v>133.26335877862596</v>
       </c>
       <c r="D39" s="28">
         <f t="shared" ref="D39:J39" si="18">D14/D27</f>
-        <v>29.12962962962963</v>
+        <v>69.833333333333329</v>
       </c>
       <c r="E39" s="28">
         <f t="shared" si="18"/>
-        <v>49.685596707818931</v>
+        <v>114.70411522633745</v>
       </c>
       <c r="F39" s="28">
         <f t="shared" si="18"/>
-        <v>38.812634408602143</v>
+        <v>79.195967741935476</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" si="18"/>
-        <v>25.367862969004893</v>
+        <v>60.498531810766721</v>
       </c>
       <c r="H39" s="28">
         <f t="shared" si="18"/>
-        <v>25.610256410256412</v>
+        <v>84.925641025641013</v>
       </c>
       <c r="I39" s="28">
         <f t="shared" si="18"/>
-        <v>6.0279059829059829</v>
+        <v>119.26068376068376</v>
       </c>
       <c r="J39" s="28">
         <f t="shared" si="18"/>
-        <v>55.712045454545454</v>
+        <v>123.55795454545455</v>
       </c>
       <c r="K39" s="28">
         <f>K14/K27</f>
-        <v>28.349342801334743</v>
+        <v>96.499165784976</v>
       </c>
       <c r="L39" s="28"/>
       <c r="M39" s="28">
         <f>M14/M27</f>
-        <v>53.567935578330896</v>
+        <v>120.40790629575405</v>
       </c>
       <c r="N39" s="28">
         <f>N14/N27</f>
-        <v>39.736950442752835</v>
+        <v>91.415294391797417</v>
       </c>
       <c r="O39" s="28">
         <f>O14/O27</f>
-        <v>33.747532570075002</v>
+        <v>81.37689169627582</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -13356,52 +13363,52 @@
       </c>
       <c r="C51" s="28">
         <f>C26/C27</f>
-        <v>3525.1649945474373</v>
+        <v>3603.8781897491822</v>
       </c>
       <c r="D51" s="28">
         <f t="shared" ref="D51:K51" si="30">D26/D27</f>
-        <v>3176.0615925925927</v>
+        <v>3216.7652962962961</v>
       </c>
       <c r="E51" s="28">
         <f t="shared" si="30"/>
-        <v>3082.962962962963</v>
+        <v>3147.9814814814813</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="30"/>
-        <v>3163.1215860215052</v>
+        <v>3203.5049193548384</v>
       </c>
       <c r="G51" s="28">
         <f t="shared" si="30"/>
-        <v>2312.1782871125611</v>
+        <v>2347.3089559543228</v>
       </c>
       <c r="H51" s="28">
         <f t="shared" si="30"/>
-        <v>2622.3306495726492</v>
+        <v>2681.6460341880338</v>
       </c>
       <c r="I51" s="28">
         <f t="shared" si="30"/>
-        <v>2646.6348290598294</v>
+        <v>2759.8676068376071</v>
       </c>
       <c r="J51" s="28">
         <f t="shared" si="30"/>
-        <v>2281.5060454545455</v>
+        <v>2349.3519545454546</v>
       </c>
       <c r="K51" s="28">
         <f t="shared" si="30"/>
-        <v>2750.8469459591438</v>
+        <v>2818.9967689427849</v>
       </c>
       <c r="L51" s="28"/>
       <c r="M51" s="28">
         <f>M26/M27</f>
-        <v>2566.651039531479</v>
+        <v>2633.4910102489016</v>
       </c>
       <c r="N51" s="28">
         <f>N26/N27</f>
-        <v>2856.5997203666307</v>
+        <v>2908.2780643156748</v>
       </c>
       <c r="O51" s="28">
         <f>O26/O27</f>
-        <v>2911.8759507829973</v>
+        <v>2959.5053099091979</v>
       </c>
     </row>
   </sheetData>
@@ -15660,13 +15667,13 @@
       <c r="D14" s="18"/>
       <c r="E14" s="18">
         <f>所有燃气电厂!M14</f>
-        <v>3658.69</v>
+        <v>8223.86</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>3658.69</v>
+        <v>8223.86</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -16016,7 +16023,7 @@
       </c>
       <c r="E26" s="10">
         <f>所有燃气电厂!M26</f>
-        <v>160549.93</v>
+        <v>165115.1</v>
       </c>
       <c r="F26" s="11">
         <f>SUM(F3:F14)</f>
@@ -16028,7 +16035,7 @@
       </c>
       <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v>691454.71310000005</v>
+        <v>696019.88310000009</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -16405,7 +16412,7 @@
       </c>
       <c r="E39" s="14">
         <f>所有燃气电厂!M39</f>
-        <v>53.567935578330896</v>
+        <v>120.40790629575405</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="12"/>
@@ -16417,7 +16424,7 @@
       </c>
       <c r="H39" s="14">
         <f t="shared" si="12"/>
-        <v>14.209608513282584</v>
+        <v>31.939801149603852</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -16767,7 +16774,7 @@
       </c>
       <c r="E51" s="42">
         <f>所有燃气电厂!M51</f>
-        <v>2350.6578330893117</v>
+        <v>2417.4978038067352</v>
       </c>
       <c r="F51" s="21">
         <f t="shared" si="24"/>
@@ -16779,7 +16786,7 @@
       </c>
       <c r="H51" s="21">
         <f t="shared" si="24"/>
-        <v>2685.4696019108283</v>
+        <v>2703.1997945471494</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/以前文件/利用小时统计分析表.xlsx
+++ b/工作代码/每日报表/以前文件/利用小时统计分析表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PYthon_Study\工作代码\每日报表\以前文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5BD801-4F12-430C-AC36-CBC253A682F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6E6D88-58E5-4824-9B80-51B12826B265}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2856" windowWidth="12720" windowHeight="5700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3768" windowWidth="12720" windowHeight="5700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="所有燃气电厂" sheetId="3" r:id="rId1"/>
@@ -1390,40 +1390,40 @@
         <v>12</v>
       </c>
       <c r="C14" s="18">
-        <v>4888.1000000000004</v>
+        <v>5188.5</v>
       </c>
       <c r="D14" s="18">
-        <v>3771</v>
+        <v>5491</v>
       </c>
       <c r="E14" s="18">
-        <v>2787.31</v>
+        <v>4014.7400000000002</v>
       </c>
       <c r="F14" s="18">
-        <v>2946.09</v>
+        <v>3104.38</v>
       </c>
       <c r="G14" s="18">
-        <v>3708.56</v>
+        <v>4444.54</v>
       </c>
       <c r="H14" s="18">
-        <v>9936.2999999999993</v>
+        <v>12338.7</v>
       </c>
       <c r="I14" s="18">
         <v>13953.5</v>
       </c>
       <c r="J14" s="18">
-        <v>5436.55</v>
+        <v>7961.76</v>
       </c>
       <c r="K14" s="19">
         <f>SUM(C14:J14)</f>
-        <v>47427.41</v>
+        <v>56497.120000000003</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>8223.86</v>
+        <v>11976.5</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>29326.35</v>
+        <v>34253.96</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1988,27 +1988,27 @@
       </c>
       <c r="C26" s="11">
         <f t="shared" si="7"/>
-        <v>127603.22</v>
+        <v>127903.62</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="8"/>
-        <v>170524.69400000002</v>
+        <v>172244.69400000002</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="9"/>
-        <v>65893.694000000003</v>
+        <v>67121.123999999996</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="10"/>
-        <v>117366.959</v>
+        <v>117525.24900000001</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" si="11"/>
-        <v>132588.47699999998</v>
+        <v>133324.45699999999</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="12"/>
-        <v>296294.48599999998</v>
+        <v>298696.886</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="12"/>
@@ -2016,19 +2016,19 @@
       </c>
       <c r="J26" s="11">
         <f t="shared" si="12"/>
-        <v>99221.406000000003</v>
+        <v>101746.61599999999</v>
       </c>
       <c r="K26" s="12">
         <f>K25+K14</f>
-        <v>1318443.4459999998</v>
+        <v>1327513.156</v>
       </c>
       <c r="M26" s="3">
         <f t="shared" si="1"/>
-        <v>165115.1</v>
+        <v>168867.74</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>704466.402</v>
+        <v>709394.01199999999</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2656,27 +2656,27 @@
       </c>
       <c r="C39" s="14">
         <f>C14/C27</f>
-        <v>133.26335877862596</v>
+        <v>141.45310796074156</v>
       </c>
       <c r="D39" s="14">
         <f t="shared" ref="D39:J39" si="33">D14/D27</f>
-        <v>69.833333333333329</v>
+        <v>101.68518518518519</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" si="33"/>
-        <v>114.70411522633745</v>
+        <v>165.2156378600823</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="33"/>
-        <v>79.195967741935476</v>
+        <v>83.451075268817206</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="33"/>
-        <v>60.498531810766721</v>
+        <v>72.504730831973902</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" si="33"/>
-        <v>84.925641025641013</v>
+        <v>105.45897435897436</v>
       </c>
       <c r="I39" s="14">
         <f t="shared" si="33"/>
@@ -2684,21 +2684,21 @@
       </c>
       <c r="J39" s="14">
         <f t="shared" si="33"/>
-        <v>123.55795454545455</v>
+        <v>180.94909090909093</v>
       </c>
       <c r="K39" s="15">
         <f>K14/K27</f>
-        <v>96.499165784976</v>
+        <v>114.95303979816066</v>
       </c>
       <c r="L39" s="29"/>
       <c r="M39" s="15">
         <f>M14/M27</f>
-        <v>120.40790629575405</v>
+        <v>175.35139092240118</v>
       </c>
       <c r="N39" s="15"/>
       <c r="O39" s="15">
         <f t="shared" ref="O39" si="34">O14/O27</f>
-        <v>105.49046762589927</v>
+        <v>123.2156834532374</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3282,27 +3282,27 @@
       </c>
       <c r="C51" s="16">
         <f t="shared" ref="C51:K51" si="57">C26/C27</f>
-        <v>3478.8227917121048</v>
+        <v>3487.0125408942204</v>
       </c>
       <c r="D51" s="16">
         <f t="shared" si="57"/>
-        <v>3157.864703703704</v>
+        <v>3189.7165555555557</v>
       </c>
       <c r="E51" s="16">
         <f t="shared" si="57"/>
-        <v>2711.6746502057613</v>
+        <v>2762.1861728395061</v>
       </c>
       <c r="F51" s="16">
         <f t="shared" si="57"/>
-        <v>3155.0257795698922</v>
+        <v>3159.2808870967742</v>
       </c>
       <c r="G51" s="16">
         <f t="shared" si="57"/>
-        <v>2162.9441598694943</v>
+        <v>2174.9503588907014</v>
       </c>
       <c r="H51" s="16">
         <f t="shared" si="57"/>
-        <v>2532.4315042735043</v>
+        <v>2552.9648376068376</v>
       </c>
       <c r="I51" s="16">
         <f t="shared" si="57"/>
@@ -3310,21 +3310,21 @@
       </c>
       <c r="J51" s="16">
         <f t="shared" si="57"/>
-        <v>2255.0319545454545</v>
+        <v>2312.4230909090907</v>
       </c>
       <c r="K51" s="17">
         <f t="shared" si="57"/>
-        <v>2682.5983681940256</v>
+        <v>2701.0522422072108</v>
       </c>
       <c r="L51" s="30"/>
       <c r="M51" s="17">
         <f>M26/M27</f>
-        <v>2417.4978038067352</v>
+        <v>2472.4412884333819</v>
       </c>
       <c r="N51" s="17"/>
       <c r="O51" s="17">
         <f t="shared" ref="O51" si="58">O26/O27</f>
-        <v>2534.0518057553959</v>
+        <v>2551.7770215827336</v>
       </c>
     </row>
   </sheetData>
@@ -5988,10 +5988,10 @@
   <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="C51" sqref="C51:K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6461,35 +6461,35 @@
       </c>
       <c r="C14" s="23">
         <f>所有燃气电厂!C14</f>
-        <v>4888.1000000000004</v>
+        <v>5188.5</v>
       </c>
       <c r="D14" s="23">
         <f>所有燃气电厂!D14</f>
-        <v>3771</v>
+        <v>5491</v>
       </c>
       <c r="E14" s="23">
         <f>所有燃气电厂!E14</f>
-        <v>2787.31</v>
+        <v>4014.7400000000002</v>
       </c>
       <c r="F14" s="23">
         <f>所有燃气电厂!F14</f>
-        <v>2946.09</v>
+        <v>3104.38</v>
       </c>
       <c r="G14" s="23">
         <f>所有燃气电厂!G14</f>
-        <v>3708.56</v>
+        <v>4444.54</v>
       </c>
       <c r="H14" s="23">
         <f>所有燃气电厂!J14</f>
-        <v>5436.55</v>
+        <v>7961.76</v>
       </c>
       <c r="I14" s="31">
         <f t="shared" si="0"/>
-        <v>23537.61</v>
+        <v>30204.92</v>
       </c>
       <c r="K14">
         <f>所有燃气电厂!M14</f>
-        <v>8223.86</v>
+        <v>11976.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6919,35 +6919,35 @@
       </c>
       <c r="C26" s="25">
         <f>所有燃气电厂!C26</f>
-        <v>127603.22</v>
+        <v>127903.62</v>
       </c>
       <c r="D26" s="25">
         <f>所有燃气电厂!D26</f>
-        <v>170524.69400000002</v>
+        <v>172244.69400000002</v>
       </c>
       <c r="E26" s="25">
         <f>所有燃气电厂!E26</f>
-        <v>65893.694000000003</v>
+        <v>67121.123999999996</v>
       </c>
       <c r="F26" s="25">
         <f>所有燃气电厂!F26</f>
-        <v>117366.959</v>
+        <v>117525.24900000001</v>
       </c>
       <c r="G26" s="25">
         <f>所有燃气电厂!G26</f>
-        <v>132588.47699999998</v>
+        <v>133324.45699999999</v>
       </c>
       <c r="H26" s="25">
         <f>所有燃气电厂!J26</f>
-        <v>99221.406000000003</v>
+        <v>101746.61599999999</v>
       </c>
       <c r="I26" s="32">
         <f t="shared" si="1"/>
-        <v>713198.45</v>
+        <v>719865.76000000013</v>
       </c>
       <c r="K26">
         <f>所有燃气电厂!M26</f>
-        <v>165115.1</v>
+        <v>168867.74</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7426,36 +7426,36 @@
       </c>
       <c r="C39" s="38">
         <f>所有燃气电厂!C39</f>
-        <v>133.26335877862596</v>
+        <v>141.45310796074156</v>
       </c>
       <c r="D39" s="38">
         <f>所有燃气电厂!D39</f>
-        <v>69.833333333333329</v>
+        <v>101.68518518518519</v>
       </c>
       <c r="E39" s="38">
         <f>所有燃气电厂!E39</f>
-        <v>114.70411522633745</v>
+        <v>165.2156378600823</v>
       </c>
       <c r="F39" s="38">
         <f>所有燃气电厂!F39</f>
-        <v>79.195967741935476</v>
+        <v>83.451075268817206</v>
       </c>
       <c r="G39" s="38">
         <f>所有燃气电厂!G39</f>
-        <v>60.498531810766721</v>
+        <v>72.504730831973902</v>
       </c>
       <c r="H39" s="38">
         <f>所有燃气电厂!J39</f>
-        <v>123.55795454545455</v>
+        <v>180.94909090909093</v>
       </c>
       <c r="I39" s="39">
         <f>I14/I27</f>
-        <v>91.415294391797417</v>
+        <v>117.30977163274817</v>
       </c>
       <c r="J39" s="37"/>
       <c r="K39" s="37">
         <f>所有燃气电厂!M39</f>
-        <v>120.40790629575405</v>
+        <v>175.35139092240118</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -7896,36 +7896,36 @@
       </c>
       <c r="C51" s="35">
         <f>所有燃气电厂!C51</f>
-        <v>3478.8227917121048</v>
+        <v>3487.0125408942204</v>
       </c>
       <c r="D51" s="35">
         <f>所有燃气电厂!D51</f>
-        <v>3157.864703703704</v>
+        <v>3189.7165555555557</v>
       </c>
       <c r="E51" s="35">
         <f>所有燃气电厂!E51</f>
-        <v>2711.6746502057613</v>
+        <v>2762.1861728395061</v>
       </c>
       <c r="F51" s="35">
         <f>所有燃气电厂!F51</f>
-        <v>3155.0257795698922</v>
+        <v>3159.2808870967742</v>
       </c>
       <c r="G51" s="35">
         <f>所有燃气电厂!G51</f>
-        <v>2162.9441598694943</v>
+        <v>2174.9503588907014</v>
       </c>
       <c r="H51" s="35">
         <f>所有燃气电厂!J51</f>
-        <v>2255.0319545454545</v>
+        <v>2312.4230909090907</v>
       </c>
       <c r="I51" s="36">
         <f>I26/I27</f>
-        <v>2769.9178576976847</v>
+        <v>2795.8123349386365</v>
       </c>
       <c r="J51" s="37"/>
       <c r="K51" s="37">
         <f>所有燃气电厂!M51</f>
-        <v>2417.4978038067352</v>
+        <v>2472.4412884333819</v>
       </c>
     </row>
   </sheetData>
@@ -8581,27 +8581,27 @@
       </c>
       <c r="C14" s="3">
         <f>所有燃气电厂!C14</f>
-        <v>4888.1000000000004</v>
+        <v>5188.5</v>
       </c>
       <c r="D14" s="3">
         <f>所有燃气电厂!D14</f>
-        <v>3771</v>
+        <v>5491</v>
       </c>
       <c r="E14" s="3">
         <f>所有燃气电厂!E14</f>
-        <v>2787.31</v>
+        <v>4014.7400000000002</v>
       </c>
       <c r="F14" s="3">
         <f>所有燃气电厂!F14</f>
-        <v>2946.09</v>
+        <v>3104.38</v>
       </c>
       <c r="G14" s="3">
         <f>所有燃气电厂!G14</f>
-        <v>3708.56</v>
+        <v>4444.54</v>
       </c>
       <c r="H14" s="3">
         <f>所有燃气电厂!H14</f>
-        <v>9936.2999999999993</v>
+        <v>12338.7</v>
       </c>
       <c r="I14" s="3">
         <f>所有燃气电厂!I14</f>
@@ -8609,24 +8609,24 @@
       </c>
       <c r="J14" s="3">
         <f>所有燃气电厂!J14</f>
-        <v>5436.55</v>
+        <v>7961.76</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>47427.41</v>
+        <v>56497.120000000003</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3">
         <f t="shared" si="2"/>
-        <v>8223.86</v>
+        <v>11976.5</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="0"/>
-        <v>23537.61</v>
+        <v>30204.92</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="3"/>
-        <v>12367.66</v>
+        <v>15124.04</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -9243,27 +9243,27 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="6"/>
-        <v>123064.97200000001</v>
+        <v>123365.372</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="6"/>
-        <v>157945.00599999999</v>
+        <v>159665.00599999999</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="6"/>
-        <v>67349.214000000007</v>
+        <v>68576.644</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="6"/>
-        <v>112830.845</v>
+        <v>112989.13500000001</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="6"/>
-        <v>127450.63099999999</v>
+        <v>128186.61099999999</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="6"/>
-        <v>299457.64599999995</v>
+        <v>301860.04599999997</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="6"/>
@@ -9271,24 +9271,24 @@
       </c>
       <c r="J26" s="3">
         <f t="shared" si="6"/>
-        <v>93498.59</v>
+        <v>96023.799999999988</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>1283309.1940000001</v>
+        <v>1292378.9040000001</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f t="shared" si="2"/>
-        <v>160847.804</v>
+        <v>164600.44399999999</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>682139.25800000003</v>
+        <v>688806.56799999997</v>
       </c>
       <c r="O26" s="3">
         <f>C26+D26+G26</f>
-        <v>408460.609</v>
+        <v>411216.989</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
@@ -9959,27 +9959,27 @@
       </c>
       <c r="C39" s="28">
         <f>C14/C27</f>
-        <v>133.26335877862596</v>
+        <v>141.45310796074156</v>
       </c>
       <c r="D39" s="28">
         <f t="shared" ref="D39:J39" si="18">D14/D27</f>
-        <v>69.833333333333329</v>
+        <v>101.68518518518519</v>
       </c>
       <c r="E39" s="28">
         <f t="shared" si="18"/>
-        <v>114.70411522633745</v>
+        <v>165.2156378600823</v>
       </c>
       <c r="F39" s="28">
         <f t="shared" si="18"/>
-        <v>79.195967741935476</v>
+        <v>83.451075268817206</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" si="18"/>
-        <v>60.498531810766721</v>
+        <v>72.504730831973902</v>
       </c>
       <c r="H39" s="28">
         <f t="shared" si="18"/>
-        <v>84.925641025641013</v>
+        <v>105.45897435897436</v>
       </c>
       <c r="I39" s="28">
         <f t="shared" si="18"/>
@@ -9987,24 +9987,24 @@
       </c>
       <c r="J39" s="28">
         <f t="shared" si="18"/>
-        <v>123.55795454545455</v>
+        <v>180.94909090909093</v>
       </c>
       <c r="K39" s="28">
         <f>K14/K27</f>
-        <v>96.499165784976</v>
+        <v>114.95303979816066</v>
       </c>
       <c r="L39" s="28"/>
       <c r="M39" s="28">
         <f>M14/M27</f>
-        <v>120.40790629575405</v>
+        <v>175.35139092240118</v>
       </c>
       <c r="N39" s="28">
         <f>N14/N27</f>
-        <v>91.415294391797417</v>
+        <v>117.30977163274817</v>
       </c>
       <c r="O39" s="28">
         <f>O14/O27</f>
-        <v>81.37689169627582</v>
+        <v>99.513357020660607</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -10621,27 +10621,27 @@
       </c>
       <c r="C51" s="28">
         <f>C26/C27</f>
-        <v>3355.0973827699022</v>
+        <v>3363.2871319520177</v>
       </c>
       <c r="D51" s="28">
         <f t="shared" ref="D51:K51" si="30">D26/D27</f>
-        <v>2924.9075185185184</v>
+        <v>2956.7593703703701</v>
       </c>
       <c r="E51" s="28">
         <f t="shared" si="30"/>
-        <v>2771.5725925925926</v>
+        <v>2822.0841152263374</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="30"/>
-        <v>3033.0872311827957</v>
+        <v>3037.3423387096773</v>
       </c>
       <c r="G51" s="28">
         <f t="shared" si="30"/>
-        <v>2079.1293800978792</v>
+        <v>2091.1355791190863</v>
       </c>
       <c r="H51" s="28">
         <f t="shared" si="30"/>
-        <v>2559.4670598290595</v>
+        <v>2580.0003931623928</v>
       </c>
       <c r="I51" s="28">
         <f t="shared" si="30"/>
@@ -10649,24 +10649,24 @@
       </c>
       <c r="J51" s="28">
         <f t="shared" si="30"/>
-        <v>2124.9679545454546</v>
+        <v>2182.3590909090908</v>
       </c>
       <c r="K51" s="28">
         <f t="shared" si="30"/>
-        <v>2611.111731911777</v>
+        <v>2629.5656059249613</v>
       </c>
       <c r="L51" s="28"/>
       <c r="M51" s="28">
         <f>M26/M27</f>
-        <v>2355.0190922401171</v>
+        <v>2409.9625768667643</v>
       </c>
       <c r="N51" s="28">
         <f>N26/N27</f>
-        <v>2649.2902672052196</v>
+        <v>2675.1847444461705</v>
       </c>
       <c r="O51" s="28">
         <f>O26/O27</f>
-        <v>2687.5944795367809</v>
+        <v>2705.7309448611654</v>
       </c>
     </row>
   </sheetData>
@@ -11323,27 +11323,27 @@
       </c>
       <c r="C14" s="3">
         <f>所有燃气电厂!C14</f>
-        <v>4888.1000000000004</v>
+        <v>5188.5</v>
       </c>
       <c r="D14" s="3">
         <f>所有燃气电厂!D14</f>
-        <v>3771</v>
+        <v>5491</v>
       </c>
       <c r="E14" s="3">
         <f>所有燃气电厂!E14</f>
-        <v>2787.31</v>
+        <v>4014.7400000000002</v>
       </c>
       <c r="F14" s="3">
         <f>所有燃气电厂!F14</f>
-        <v>2946.09</v>
+        <v>3104.38</v>
       </c>
       <c r="G14" s="3">
         <f>所有燃气电厂!G14</f>
-        <v>3708.56</v>
+        <v>4444.54</v>
       </c>
       <c r="H14" s="3">
         <f>所有燃气电厂!H14</f>
-        <v>9936.2999999999993</v>
+        <v>12338.7</v>
       </c>
       <c r="I14" s="3">
         <f>所有燃气电厂!I14</f>
@@ -11351,24 +11351,24 @@
       </c>
       <c r="J14" s="3">
         <f>所有燃气电厂!J14</f>
-        <v>5436.55</v>
+        <v>7961.76</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>47427.41</v>
+        <v>56497.120000000003</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3">
         <f t="shared" si="2"/>
-        <v>8223.86</v>
+        <v>11976.5</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="0"/>
-        <v>23537.61</v>
+        <v>30204.92</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" si="3"/>
-        <v>12367.66</v>
+        <v>15124.04</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -11985,27 +11985,27 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="6"/>
-        <v>132190.25200000001</v>
+        <v>132490.652</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="6"/>
-        <v>173705.326</v>
+        <v>175425.326</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="6"/>
-        <v>76495.95</v>
+        <v>77723.38</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="6"/>
-        <v>119170.383</v>
+        <v>119328.67300000001</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="6"/>
-        <v>143890.03899999999</v>
+        <v>144626.019</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="6"/>
-        <v>313752.58599999995</v>
+        <v>316154.98599999998</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="6"/>
@@ -12013,24 +12013,24 @@
       </c>
       <c r="J26" s="3">
         <f t="shared" si="6"/>
-        <v>103371.486</v>
+        <v>105896.696</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="1"/>
-        <v>1385480.5319999999</v>
+        <v>1394550.2420000001</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f t="shared" si="2"/>
-        <v>179867.43599999999</v>
+        <v>183620.076</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="0"/>
-        <v>748823.43599999999</v>
+        <v>755490.74600000004</v>
       </c>
       <c r="O26" s="3">
         <f>C26+D26+G26</f>
-        <v>449785.61699999997</v>
+        <v>452541.99699999997</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="31.2" x14ac:dyDescent="0.25">
@@ -12701,27 +12701,27 @@
       </c>
       <c r="C39" s="28">
         <f>C14/C27</f>
-        <v>133.26335877862596</v>
+        <v>141.45310796074156</v>
       </c>
       <c r="D39" s="28">
         <f t="shared" ref="D39:J39" si="18">D14/D27</f>
-        <v>69.833333333333329</v>
+        <v>101.68518518518519</v>
       </c>
       <c r="E39" s="28">
         <f t="shared" si="18"/>
-        <v>114.70411522633745</v>
+        <v>165.2156378600823</v>
       </c>
       <c r="F39" s="28">
         <f t="shared" si="18"/>
-        <v>79.195967741935476</v>
+        <v>83.451075268817206</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" si="18"/>
-        <v>60.498531810766721</v>
+        <v>72.504730831973902</v>
       </c>
       <c r="H39" s="28">
         <f t="shared" si="18"/>
-        <v>84.925641025641013</v>
+        <v>105.45897435897436</v>
       </c>
       <c r="I39" s="28">
         <f t="shared" si="18"/>
@@ -12729,24 +12729,24 @@
       </c>
       <c r="J39" s="28">
         <f t="shared" si="18"/>
-        <v>123.55795454545455</v>
+        <v>180.94909090909093</v>
       </c>
       <c r="K39" s="28">
         <f>K14/K27</f>
-        <v>96.499165784976</v>
+        <v>114.95303979816066</v>
       </c>
       <c r="L39" s="28"/>
       <c r="M39" s="28">
         <f>M14/M27</f>
-        <v>120.40790629575405</v>
+        <v>175.35139092240118</v>
       </c>
       <c r="N39" s="28">
         <f>N14/N27</f>
-        <v>91.415294391797417</v>
+        <v>117.30977163274817</v>
       </c>
       <c r="O39" s="28">
         <f>O14/O27</f>
-        <v>81.37689169627582</v>
+        <v>99.513357020660607</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -13363,27 +13363,27 @@
       </c>
       <c r="C51" s="28">
         <f>C26/C27</f>
-        <v>3603.8781897491822</v>
+        <v>3612.0679389312977</v>
       </c>
       <c r="D51" s="28">
         <f t="shared" ref="D51:K51" si="30">D26/D27</f>
-        <v>3216.7652962962961</v>
+        <v>3248.6171481481483</v>
       </c>
       <c r="E51" s="28">
         <f t="shared" si="30"/>
-        <v>3147.9814814814813</v>
+        <v>3198.4930041152265</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="30"/>
-        <v>3203.5049193548384</v>
+        <v>3207.7600268817205</v>
       </c>
       <c r="G51" s="28">
         <f t="shared" si="30"/>
-        <v>2347.3089559543228</v>
+        <v>2359.3151549755303</v>
       </c>
       <c r="H51" s="28">
         <f t="shared" si="30"/>
-        <v>2681.6460341880338</v>
+        <v>2702.1793675213671</v>
       </c>
       <c r="I51" s="28">
         <f t="shared" si="30"/>
@@ -13391,24 +13391,24 @@
       </c>
       <c r="J51" s="28">
         <f t="shared" si="30"/>
-        <v>2349.3519545454546</v>
+        <v>2406.7430909090908</v>
       </c>
       <c r="K51" s="28">
         <f t="shared" si="30"/>
-        <v>2818.9967689427849</v>
+        <v>2837.4506429559697</v>
       </c>
       <c r="L51" s="28"/>
       <c r="M51" s="28">
         <f>M26/M27</f>
-        <v>2633.4910102489016</v>
+        <v>2688.4344948755493</v>
       </c>
       <c r="N51" s="28">
         <f>N26/N27</f>
-        <v>2908.2780643156748</v>
+        <v>2934.1725415566257</v>
       </c>
       <c r="O51" s="28">
         <f>O26/O27</f>
-        <v>2959.5053099091979</v>
+        <v>2977.6417752335828</v>
       </c>
     </row>
   </sheetData>
@@ -15667,13 +15667,13 @@
       <c r="D14" s="18"/>
       <c r="E14" s="18">
         <f>所有燃气电厂!M14</f>
-        <v>8223.86</v>
+        <v>11976.5</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>8223.86</v>
+        <v>11976.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -16023,7 +16023,7 @@
       </c>
       <c r="E26" s="10">
         <f>所有燃气电厂!M26</f>
-        <v>165115.1</v>
+        <v>168867.74</v>
       </c>
       <c r="F26" s="11">
         <f>SUM(F3:F14)</f>
@@ -16035,7 +16035,7 @@
       </c>
       <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v>696019.88310000009</v>
+        <v>699772.52309999999</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -16412,7 +16412,7 @@
       </c>
       <c r="E39" s="14">
         <f>所有燃气电厂!M39</f>
-        <v>120.40790629575405</v>
+        <v>175.35139092240118</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" si="12"/>
@@ -16424,7 +16424,7 @@
       </c>
       <c r="H39" s="14">
         <f t="shared" si="12"/>
-        <v>31.939801149603852</v>
+        <v>46.514292372223082</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="E51" s="42">
         <f>所有燃气电厂!M51</f>
-        <v>2417.4978038067352</v>
+        <v>2472.4412884333819</v>
       </c>
       <c r="F51" s="21">
         <f t="shared" si="24"/>
@@ -16786,7 +16786,7 @@
       </c>
       <c r="H51" s="21">
         <f t="shared" si="24"/>
-        <v>2703.1997945471494</v>
+        <v>2717.7742857697681</v>
       </c>
     </row>
   </sheetData>

--- a/工作代码/每日报表/以前文件/利用小时统计分析表.xlsx
+++ b/工作代码/每日报表/以前文件/利用小时统计分析表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PYthon_Study\工作代码\每日报表\以前文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4F995B-3F09-4ED4-BAF8-9FD5E086C447}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1823E77D-2E62-4ED6-8658-452481367259}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4680" windowWidth="12720" windowHeight="5700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5136" windowWidth="12720" windowHeight="5700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="所有燃气电厂" sheetId="3" r:id="rId1"/>
@@ -862,11 +862,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -927,25 +927,41 @@
       <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="C3" s="18">
+        <v>536.85</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>621.68000000000006</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>998.66000000000008</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1587.3</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
       <c r="K3" s="19">
         <f t="shared" ref="K3:K11" si="0">SUM(C3:J3)</f>
-        <v>0</v>
+        <v>3744.4900000000007</v>
       </c>
       <c r="M3" s="3">
         <f>E3+J3</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="O3">
         <f>H3+I3+J3</f>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1243,7 +1259,7 @@
       </c>
       <c r="C15" s="11">
         <f>C3</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" ref="D15:J15" si="3">D3</f>
@@ -1251,7 +1267,7 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="3"/>
@@ -1259,11 +1275,11 @@
       </c>
       <c r="G15" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
@@ -1275,15 +1291,15 @@
       </c>
       <c r="K15" s="12">
         <f t="shared" ref="K15:K23" si="4">SUM(C15:J15)</f>
-        <v>0</v>
+        <v>3744.4900000000007</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1293,7 +1309,7 @@
       </c>
       <c r="C16" s="11">
         <f t="shared" ref="C16:H16" si="5">C15+C4</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="5"/>
@@ -1301,7 +1317,7 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="5"/>
@@ -1309,11 +1325,11 @@
       </c>
       <c r="G16" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ref="I16:J18" si="6">I15+I4</f>
@@ -1325,15 +1341,15 @@
       </c>
       <c r="K16" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3744.4900000000007</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1343,7 +1359,7 @@
       </c>
       <c r="C17" s="11">
         <f t="shared" ref="C17:C26" si="7">C16+C5</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" ref="D17:D26" si="8">D16+D5</f>
@@ -1351,7 +1367,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" ref="E17:E26" si="9">E16+E5</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" ref="F17:F26" si="10">F16+F5</f>
@@ -1359,11 +1375,11 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" ref="G17:G26" si="11">G16+G5</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" ref="H17:J26" si="12">H16+H5</f>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="6"/>
@@ -1375,18 +1391,18 @@
       </c>
       <c r="K17" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3744.4900000000007</v>
       </c>
       <c r="L17" t="s">
         <v>28</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1396,7 +1412,7 @@
       </c>
       <c r="C18" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="8"/>
@@ -1404,7 +1420,7 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="10"/>
@@ -1412,11 +1428,11 @@
       </c>
       <c r="G18" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="6"/>
@@ -1428,15 +1444,15 @@
       </c>
       <c r="K18" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3744.4900000000007</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1446,7 +1462,7 @@
       </c>
       <c r="C19" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="8"/>
@@ -1454,7 +1470,7 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="10"/>
@@ -1462,11 +1478,11 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="12"/>
@@ -1478,15 +1494,15 @@
       </c>
       <c r="K19" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3744.4900000000007</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1496,7 +1512,7 @@
       </c>
       <c r="C20" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" si="8"/>
@@ -1504,7 +1520,7 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="10"/>
@@ -1512,11 +1528,11 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="12"/>
@@ -1528,15 +1544,15 @@
       </c>
       <c r="K20" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3744.4900000000007</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="O20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1546,7 +1562,7 @@
       </c>
       <c r="C21" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="8"/>
@@ -1554,7 +1570,7 @@
       </c>
       <c r="E21" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="10"/>
@@ -1562,11 +1578,11 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="12"/>
@@ -1578,15 +1594,15 @@
       </c>
       <c r="K21" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3744.4900000000007</v>
       </c>
       <c r="M21" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1596,7 +1612,7 @@
       </c>
       <c r="C22" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="8"/>
@@ -1604,7 +1620,7 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="10"/>
@@ -1612,11 +1628,11 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="12"/>
@@ -1628,15 +1644,15 @@
       </c>
       <c r="K22" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3744.4900000000007</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1646,7 +1662,7 @@
       </c>
       <c r="C23" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D23" s="11">
         <f t="shared" si="8"/>
@@ -1654,7 +1670,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="10"/>
@@ -1662,11 +1678,11 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="12"/>
@@ -1678,15 +1694,15 @@
       </c>
       <c r="K23" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3744.4900000000007</v>
       </c>
       <c r="M23" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1696,7 +1712,7 @@
       </c>
       <c r="C24" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D24" s="11">
         <f t="shared" si="8"/>
@@ -1704,7 +1720,7 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="10"/>
@@ -1712,11 +1728,11 @@
       </c>
       <c r="G24" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="12"/>
@@ -1728,15 +1744,15 @@
       </c>
       <c r="K24" s="12">
         <f>SUM(C24:J24)</f>
-        <v>0</v>
+        <v>3744.4900000000007</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1746,7 +1762,7 @@
       </c>
       <c r="C25" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="8"/>
@@ -1754,7 +1770,7 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="10"/>
@@ -1762,11 +1778,11 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="12"/>
@@ -1778,15 +1794,15 @@
       </c>
       <c r="K25" s="12">
         <f>K24+K13</f>
-        <v>0</v>
+        <v>3744.4900000000007</v>
       </c>
       <c r="M25" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1796,7 +1812,7 @@
       </c>
       <c r="C26" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="8"/>
@@ -1804,7 +1820,7 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="10"/>
@@ -1812,11 +1828,11 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="12"/>
@@ -1828,15 +1844,15 @@
       </c>
       <c r="K26" s="12">
         <f>K25+K14</f>
-        <v>0</v>
+        <v>3744.4900000000007</v>
       </c>
       <c r="M26" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1587.3</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1892,7 +1908,7 @@
       </c>
       <c r="C28" s="14">
         <f t="shared" ref="C28:K28" si="13">C3/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D28" s="14">
         <f t="shared" si="13"/>
@@ -1900,7 +1916,7 @@
       </c>
       <c r="E28" s="14">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F28" s="14">
         <f t="shared" si="13"/>
@@ -1908,11 +1924,11 @@
       </c>
       <c r="G28" s="14">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>13.566666666666666</v>
       </c>
       <c r="I28" s="14">
         <f t="shared" si="13"/>
@@ -1924,17 +1940,17 @@
       </c>
       <c r="K28" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7.6188044274436404</v>
       </c>
       <c r="L28" s="29"/>
       <c r="M28" s="15">
         <f>M3/M27</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="N28" s="15"/>
       <c r="O28" s="15">
         <f t="shared" ref="O28" si="14">O3/O27</f>
-        <v>0</v>
+        <v>5.7097122302158274</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2518,7 +2534,7 @@
       </c>
       <c r="C40" s="16">
         <f t="shared" ref="C40:K40" si="35">C15/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D40" s="16">
         <f t="shared" si="35"/>
@@ -2526,7 +2542,7 @@
       </c>
       <c r="E40" s="16">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F40" s="16">
         <f t="shared" si="35"/>
@@ -2534,11 +2550,11 @@
       </c>
       <c r="G40" s="16">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H40" s="16">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>13.566666666666666</v>
       </c>
       <c r="I40" s="16">
         <f t="shared" si="35"/>
@@ -2550,17 +2566,17 @@
       </c>
       <c r="K40" s="17">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>7.6188044274436404</v>
       </c>
       <c r="L40" s="30"/>
       <c r="M40" s="17">
         <f>M15/M27</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="N40" s="17"/>
       <c r="O40" s="17">
         <f t="shared" ref="O40" si="36">O15/O27</f>
-        <v>0</v>
+        <v>5.7097122302158274</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2570,7 +2586,7 @@
       </c>
       <c r="C41" s="16">
         <f t="shared" ref="C41:K41" si="37">C16/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D41" s="16">
         <f t="shared" si="37"/>
@@ -2578,7 +2594,7 @@
       </c>
       <c r="E41" s="16">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F41" s="16">
         <f t="shared" si="37"/>
@@ -2586,11 +2602,11 @@
       </c>
       <c r="G41" s="16">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H41" s="16">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>13.566666666666666</v>
       </c>
       <c r="I41" s="16">
         <f t="shared" si="37"/>
@@ -2602,17 +2618,17 @@
       </c>
       <c r="K41" s="17">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>7.6188044274436404</v>
       </c>
       <c r="L41" s="30"/>
       <c r="M41" s="17">
         <f>M16/M27</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="N41" s="17"/>
       <c r="O41" s="17">
         <f t="shared" ref="O41" si="38">O16/O27</f>
-        <v>0</v>
+        <v>5.7097122302158274</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2622,7 +2638,7 @@
       </c>
       <c r="C42" s="16">
         <f t="shared" ref="C42:K42" si="39">C17/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D42" s="16">
         <f t="shared" si="39"/>
@@ -2630,7 +2646,7 @@
       </c>
       <c r="E42" s="16">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F42" s="16">
         <f t="shared" si="39"/>
@@ -2638,11 +2654,11 @@
       </c>
       <c r="G42" s="16">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H42" s="16">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>13.566666666666666</v>
       </c>
       <c r="I42" s="16">
         <f t="shared" si="39"/>
@@ -2654,17 +2670,17 @@
       </c>
       <c r="K42" s="17">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>7.6188044274436404</v>
       </c>
       <c r="L42" s="30"/>
       <c r="M42" s="17">
         <f>M17/M27</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="N42" s="17"/>
       <c r="O42" s="17">
         <f t="shared" ref="O42" si="40">O17/O27</f>
-        <v>0</v>
+        <v>5.7097122302158274</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2674,7 +2690,7 @@
       </c>
       <c r="C43" s="16">
         <f t="shared" ref="C43:K43" si="41">C18/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D43" s="16">
         <f t="shared" si="41"/>
@@ -2682,7 +2698,7 @@
       </c>
       <c r="E43" s="16">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F43" s="16">
         <f t="shared" si="41"/>
@@ -2690,11 +2706,11 @@
       </c>
       <c r="G43" s="16">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H43" s="16">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>13.566666666666666</v>
       </c>
       <c r="I43" s="16">
         <f t="shared" si="41"/>
@@ -2706,17 +2722,17 @@
       </c>
       <c r="K43" s="17">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>7.6188044274436404</v>
       </c>
       <c r="L43" s="30"/>
       <c r="M43" s="17">
         <f>M18/M27</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="N43" s="17"/>
       <c r="O43" s="17">
         <f t="shared" ref="O43" si="42">O18/O27</f>
-        <v>0</v>
+        <v>5.7097122302158274</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2726,7 +2742,7 @@
       </c>
       <c r="C44" s="16">
         <f t="shared" ref="C44:K44" si="43">C19/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D44" s="16">
         <f t="shared" si="43"/>
@@ -2734,7 +2750,7 @@
       </c>
       <c r="E44" s="16">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F44" s="16">
         <f t="shared" si="43"/>
@@ -2742,11 +2758,11 @@
       </c>
       <c r="G44" s="16">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H44" s="16">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>13.566666666666666</v>
       </c>
       <c r="I44" s="16">
         <f t="shared" si="43"/>
@@ -2758,17 +2774,17 @@
       </c>
       <c r="K44" s="17">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>7.6188044274436404</v>
       </c>
       <c r="L44" s="30"/>
       <c r="M44" s="17">
         <f>M19/M27</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="N44" s="17"/>
       <c r="O44" s="17">
         <f t="shared" ref="O44" si="44">O19/O27</f>
-        <v>0</v>
+        <v>5.7097122302158274</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -2778,7 +2794,7 @@
       </c>
       <c r="C45" s="16">
         <f t="shared" ref="C45:K45" si="45">C20/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D45" s="16">
         <f t="shared" si="45"/>
@@ -2786,7 +2802,7 @@
       </c>
       <c r="E45" s="16">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F45" s="16">
         <f t="shared" si="45"/>
@@ -2794,11 +2810,11 @@
       </c>
       <c r="G45" s="16">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H45" s="16">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>13.566666666666666</v>
       </c>
       <c r="I45" s="16">
         <f t="shared" si="45"/>
@@ -2810,17 +2826,17 @@
       </c>
       <c r="K45" s="17">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>7.6188044274436404</v>
       </c>
       <c r="L45" s="30"/>
       <c r="M45" s="17">
         <f>M20/M27</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="N45" s="17"/>
       <c r="O45" s="17">
         <f t="shared" ref="O45" si="46">O20/O27</f>
-        <v>0</v>
+        <v>5.7097122302158274</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2830,7 +2846,7 @@
       </c>
       <c r="C46" s="16">
         <f t="shared" ref="C46:K46" si="47">C21/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D46" s="16">
         <f t="shared" si="47"/>
@@ -2838,7 +2854,7 @@
       </c>
       <c r="E46" s="16">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F46" s="16">
         <f t="shared" si="47"/>
@@ -2846,11 +2862,11 @@
       </c>
       <c r="G46" s="16">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H46" s="16">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>13.566666666666666</v>
       </c>
       <c r="I46" s="16">
         <f t="shared" si="47"/>
@@ -2862,17 +2878,17 @@
       </c>
       <c r="K46" s="17">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>7.6188044274436404</v>
       </c>
       <c r="L46" s="30"/>
       <c r="M46" s="17">
         <f>M21/M27</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="N46" s="17"/>
       <c r="O46" s="17">
         <f t="shared" ref="O46" si="48">O21/O27</f>
-        <v>0</v>
+        <v>5.7097122302158274</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -2882,7 +2898,7 @@
       </c>
       <c r="C47" s="16">
         <f t="shared" ref="C47:K47" si="49">C22/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D47" s="16">
         <f t="shared" si="49"/>
@@ -2890,7 +2906,7 @@
       </c>
       <c r="E47" s="16">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F47" s="16">
         <f t="shared" si="49"/>
@@ -2898,11 +2914,11 @@
       </c>
       <c r="G47" s="16">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H47" s="16">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>13.566666666666666</v>
       </c>
       <c r="I47" s="16">
         <f t="shared" si="49"/>
@@ -2914,17 +2930,17 @@
       </c>
       <c r="K47" s="17">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>7.6188044274436404</v>
       </c>
       <c r="L47" s="30"/>
       <c r="M47" s="17">
         <f>M22/M27</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="N47" s="17"/>
       <c r="O47" s="17">
         <f t="shared" ref="O47" si="50">O22/O27</f>
-        <v>0</v>
+        <v>5.7097122302158274</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2934,7 +2950,7 @@
       </c>
       <c r="C48" s="16">
         <f t="shared" ref="C48:K48" si="51">C23/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D48" s="16">
         <f t="shared" si="51"/>
@@ -2942,7 +2958,7 @@
       </c>
       <c r="E48" s="16">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F48" s="16">
         <f t="shared" si="51"/>
@@ -2950,11 +2966,11 @@
       </c>
       <c r="G48" s="16">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H48" s="16">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>13.566666666666666</v>
       </c>
       <c r="I48" s="16">
         <f t="shared" si="51"/>
@@ -2966,17 +2982,17 @@
       </c>
       <c r="K48" s="17">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>7.6188044274436404</v>
       </c>
       <c r="L48" s="30"/>
       <c r="M48" s="17">
         <f>M23/M27</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="N48" s="17"/>
       <c r="O48" s="17">
         <f t="shared" ref="O48" si="52">O23/O27</f>
-        <v>0</v>
+        <v>5.7097122302158274</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2986,7 +3002,7 @@
       </c>
       <c r="C49" s="16">
         <f t="shared" ref="C49:K49" si="53">C24/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D49" s="16">
         <f t="shared" si="53"/>
@@ -2994,7 +3010,7 @@
       </c>
       <c r="E49" s="16">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F49" s="16">
         <f t="shared" si="53"/>
@@ -3002,11 +3018,11 @@
       </c>
       <c r="G49" s="16">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H49" s="16">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>13.566666666666666</v>
       </c>
       <c r="I49" s="16">
         <f t="shared" si="53"/>
@@ -3018,17 +3034,17 @@
       </c>
       <c r="K49" s="17">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>7.6188044274436404</v>
       </c>
       <c r="L49" s="30"/>
       <c r="M49" s="17">
         <f>M24/M27</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="N49" s="17"/>
       <c r="O49" s="17">
         <f t="shared" ref="O49" si="54">O24/O27</f>
-        <v>0</v>
+        <v>5.7097122302158274</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3038,7 +3054,7 @@
       </c>
       <c r="C50" s="16">
         <f t="shared" ref="C50:K50" si="55">C25/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D50" s="16">
         <f t="shared" si="55"/>
@@ -3046,7 +3062,7 @@
       </c>
       <c r="E50" s="16">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F50" s="16">
         <f t="shared" si="55"/>
@@ -3054,11 +3070,11 @@
       </c>
       <c r="G50" s="16">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H50" s="16">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>13.566666666666666</v>
       </c>
       <c r="I50" s="16">
         <f t="shared" si="55"/>
@@ -3070,17 +3086,17 @@
       </c>
       <c r="K50" s="17">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>7.6188044274436404</v>
       </c>
       <c r="L50" s="30"/>
       <c r="M50" s="17">
         <f>M25/M27</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="N50" s="17"/>
       <c r="O50" s="17">
         <f t="shared" ref="O50" si="56">O25/O27</f>
-        <v>0</v>
+        <v>5.7097122302158274</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3090,7 +3106,7 @@
       </c>
       <c r="C51" s="16">
         <f t="shared" ref="C51:K51" si="57">C26/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D51" s="16">
         <f t="shared" si="57"/>
@@ -3098,7 +3114,7 @@
       </c>
       <c r="E51" s="16">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F51" s="16">
         <f t="shared" si="57"/>
@@ -3106,11 +3122,11 @@
       </c>
       <c r="G51" s="16">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H51" s="16">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>13.566666666666666</v>
       </c>
       <c r="I51" s="16">
         <f t="shared" si="57"/>
@@ -3122,17 +3138,17 @@
       </c>
       <c r="K51" s="17">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>7.6188044274436404</v>
       </c>
       <c r="L51" s="30"/>
       <c r="M51" s="17">
         <f>M26/M27</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="N51" s="17"/>
       <c r="O51" s="17">
         <f t="shared" ref="O51" si="58">O26/O27</f>
-        <v>0</v>
+        <v>5.7097122302158274</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +3215,7 @@
       </c>
       <c r="C3" s="18">
         <f>所有燃气电厂!C3</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D3" s="18">
         <f>所有燃气电厂!D3</f>
@@ -3207,7 +3223,7 @@
       </c>
       <c r="E3" s="18">
         <f>所有燃气电厂!E3</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F3" s="18">
         <f>所有燃气电厂!F3</f>
@@ -3215,11 +3231,11 @@
       </c>
       <c r="G3" s="18">
         <f>所有燃气电厂!G3</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H3" s="18">
         <f>SUM(C3:G3)</f>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3546,7 +3562,7 @@
       </c>
       <c r="C15" s="11">
         <f>C3</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D15" s="11">
         <f>D3</f>
@@ -3554,7 +3570,7 @@
       </c>
       <c r="E15" s="11">
         <f>E3</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F15" s="11">
         <f>F3</f>
@@ -3562,11 +3578,11 @@
       </c>
       <c r="G15" s="11">
         <f>G3</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H15" s="11">
         <f>SUM(C15:G15)</f>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3576,7 +3592,7 @@
       </c>
       <c r="C16" s="11">
         <f>C3+C4</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D16" s="11">
         <f>D3+D4</f>
@@ -3584,7 +3600,7 @@
       </c>
       <c r="E16" s="11">
         <f>E3+E4</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F16" s="11">
         <f>F3+F4</f>
@@ -3592,11 +3608,11 @@
       </c>
       <c r="G16" s="11">
         <f>G3+G4</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -3606,7 +3622,7 @@
       </c>
       <c r="C17" s="11">
         <f>C3+C4+C5</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D17" s="11">
         <f>D3+D4+D5</f>
@@ -3614,7 +3630,7 @@
       </c>
       <c r="E17" s="11">
         <f>E3+E4+E5</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F17" s="11">
         <f>F3+F4+F5</f>
@@ -3622,11 +3638,11 @@
       </c>
       <c r="G17" s="11">
         <f>G3+G4+G5</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3636,7 +3652,7 @@
       </c>
       <c r="C18" s="11">
         <f>C3+C4+C5+C6</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D18" s="11">
         <f>D3+D4+D5+D6</f>
@@ -3644,7 +3660,7 @@
       </c>
       <c r="E18" s="11">
         <f>E3+E4+E5+E6</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F18" s="11">
         <f>F3+F4+F5+F6</f>
@@ -3652,11 +3668,11 @@
       </c>
       <c r="G18" s="11">
         <f>G3+G4+G5+G6</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3666,7 +3682,7 @@
       </c>
       <c r="C19" s="11">
         <f>C3+C4+C5+C6+C7</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D19" s="11">
         <f>D3+D4+D5+D6+D7</f>
@@ -3674,7 +3690,7 @@
       </c>
       <c r="E19" s="11">
         <f>E3+E4+E5+E6+E7</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F19" s="11">
         <f>F3+F4+F5+F6+F7</f>
@@ -3682,11 +3698,11 @@
       </c>
       <c r="G19" s="11">
         <f>G3+G4+G5+G6+G7</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3696,7 +3712,7 @@
       </c>
       <c r="C20" s="11">
         <f>C3+C4+C5+C6+C7+C8</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D20" s="11">
         <f>D3+D4+D5+D6+D7+D8</f>
@@ -3704,7 +3720,7 @@
       </c>
       <c r="E20" s="11">
         <f>E3+E4+E5+E6+E7+E8</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F20" s="11">
         <f>F3+F4+F5+F6+F7+F8</f>
@@ -3712,11 +3728,11 @@
       </c>
       <c r="G20" s="11">
         <f>G3+G4+G5+G6+G7+G8</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3726,7 +3742,7 @@
       </c>
       <c r="C21" s="11">
         <f>C3+C4+C5+C6+C7+C8+C9</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D21" s="11">
         <f>D3+D4+D5+D6+D7+D8+D9</f>
@@ -3734,7 +3750,7 @@
       </c>
       <c r="E21" s="11">
         <f>E3+E4+E5+E6+E7+E8+E9</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F21" s="11">
         <f>F3+F4+F5+F6+F7+F8+F9</f>
@@ -3742,11 +3758,11 @@
       </c>
       <c r="G21" s="11">
         <f>G3+G4+G5+G6+G7+G8+G9</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3756,7 +3772,7 @@
       </c>
       <c r="C22" s="11">
         <f>SUM(C3:C10)</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D22" s="11">
         <f>SUM(D3:D10)</f>
@@ -3764,7 +3780,7 @@
       </c>
       <c r="E22" s="11">
         <f>SUM(E3:E10)</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F22" s="11">
         <f>SUM(F3:F10)</f>
@@ -3772,11 +3788,11 @@
       </c>
       <c r="G22" s="11">
         <f>SUM(G3:G10)</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3786,7 +3802,7 @@
       </c>
       <c r="C23" s="11">
         <f>SUM(C3:C11)</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D23" s="11">
         <f>SUM(D3:D11)</f>
@@ -3794,7 +3810,7 @@
       </c>
       <c r="E23" s="11">
         <f>SUM(E3:E11)</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F23" s="11">
         <f>SUM(F3:F11)</f>
@@ -3802,11 +3818,11 @@
       </c>
       <c r="G23" s="11">
         <f>SUM(G3:G11)</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3816,7 +3832,7 @@
       </c>
       <c r="C24" s="11">
         <f>SUM(C3:C12)</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D24" s="11">
         <f>SUM(D3:D12)</f>
@@ -3824,7 +3840,7 @@
       </c>
       <c r="E24" s="11">
         <f>SUM(E3:E12)</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F24" s="11">
         <f>SUM(F3:F12)</f>
@@ -3832,11 +3848,11 @@
       </c>
       <c r="G24" s="11">
         <f>SUM(G3:G12)</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3846,7 +3862,7 @@
       </c>
       <c r="C25" s="11">
         <f>SUM(C3:C13)</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D25" s="11">
         <f>SUM(D3:D13)</f>
@@ -3854,7 +3870,7 @@
       </c>
       <c r="E25" s="11">
         <f>SUM(E3:E13)</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F25" s="11">
         <f>SUM(F3:F13)</f>
@@ -3862,11 +3878,11 @@
       </c>
       <c r="G25" s="11">
         <f>SUM(G3:G13)</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3876,7 +3892,7 @@
       </c>
       <c r="C26" s="11">
         <f>SUM(C3:C14)</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(D3:D14)</f>
@@ -3884,7 +3900,7 @@
       </c>
       <c r="E26" s="11">
         <f>SUM(E3:E14)</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F26" s="11">
         <f>SUM(F3:F14)</f>
@@ -3892,11 +3908,11 @@
       </c>
       <c r="G26" s="11">
         <f>SUM(G3:G14)</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3934,7 +3950,7 @@
       </c>
       <c r="C28" s="14">
         <f t="shared" ref="C28:H28" si="1">C3/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D28" s="14">
         <f t="shared" si="1"/>
@@ -3942,7 +3958,7 @@
       </c>
       <c r="E28" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F28" s="14">
         <f t="shared" si="1"/>
@@ -3950,11 +3966,11 @@
       </c>
       <c r="G28" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.19080687830688</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4296,7 +4312,7 @@
       </c>
       <c r="C40" s="21">
         <f t="shared" ref="C40:H40" si="13">C15/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D40" s="21">
         <f t="shared" si="13"/>
@@ -4304,7 +4320,7 @@
       </c>
       <c r="E40" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F40" s="21">
         <f t="shared" si="13"/>
@@ -4312,11 +4328,11 @@
       </c>
       <c r="G40" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="H40" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10.19080687830688</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -4326,7 +4342,7 @@
       </c>
       <c r="C41" s="21">
         <f t="shared" ref="C41:H41" si="14">C16/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D41" s="21">
         <f t="shared" si="14"/>
@@ -4334,7 +4350,7 @@
       </c>
       <c r="E41" s="21">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F41" s="21">
         <f t="shared" si="14"/>
@@ -4342,11 +4358,11 @@
       </c>
       <c r="G41" s="21">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="H41" s="21">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10.19080687830688</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -4356,7 +4372,7 @@
       </c>
       <c r="C42" s="21">
         <f t="shared" ref="C42:H42" si="15">C17/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D42" s="21">
         <f t="shared" si="15"/>
@@ -4364,7 +4380,7 @@
       </c>
       <c r="E42" s="21">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F42" s="21">
         <f t="shared" si="15"/>
@@ -4372,11 +4388,11 @@
       </c>
       <c r="G42" s="21">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="H42" s="21">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10.19080687830688</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -4386,7 +4402,7 @@
       </c>
       <c r="C43" s="21">
         <f t="shared" ref="C43:H43" si="16">C18/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D43" s="21">
         <f t="shared" si="16"/>
@@ -4394,7 +4410,7 @@
       </c>
       <c r="E43" s="21">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F43" s="21">
         <f t="shared" si="16"/>
@@ -4402,11 +4418,11 @@
       </c>
       <c r="G43" s="21">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="H43" s="21">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>10.19080687830688</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -4416,7 +4432,7 @@
       </c>
       <c r="C44" s="21">
         <f t="shared" ref="C44:H44" si="17">C19/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D44" s="21">
         <f t="shared" si="17"/>
@@ -4424,7 +4440,7 @@
       </c>
       <c r="E44" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F44" s="21">
         <f t="shared" si="17"/>
@@ -4432,11 +4448,11 @@
       </c>
       <c r="G44" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="H44" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10.19080687830688</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -4446,7 +4462,7 @@
       </c>
       <c r="C45" s="21">
         <f t="shared" ref="C45:H45" si="18">C20/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D45" s="21">
         <f t="shared" si="18"/>
@@ -4454,7 +4470,7 @@
       </c>
       <c r="E45" s="21">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F45" s="21">
         <f t="shared" si="18"/>
@@ -4462,11 +4478,11 @@
       </c>
       <c r="G45" s="21">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="H45" s="21">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10.19080687830688</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -4476,7 +4492,7 @@
       </c>
       <c r="C46" s="21">
         <f t="shared" ref="C46:H46" si="19">C21/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D46" s="21">
         <f t="shared" si="19"/>
@@ -4484,7 +4500,7 @@
       </c>
       <c r="E46" s="21">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F46" s="21">
         <f t="shared" si="19"/>
@@ -4492,11 +4508,11 @@
       </c>
       <c r="G46" s="21">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="H46" s="21">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>10.19080687830688</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -4506,7 +4522,7 @@
       </c>
       <c r="C47" s="21">
         <f t="shared" ref="C47:H47" si="20">C22/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D47" s="21">
         <f t="shared" si="20"/>
@@ -4514,7 +4530,7 @@
       </c>
       <c r="E47" s="21">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F47" s="21">
         <f t="shared" si="20"/>
@@ -4522,11 +4538,11 @@
       </c>
       <c r="G47" s="21">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="H47" s="21">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>10.19080687830688</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -4536,7 +4552,7 @@
       </c>
       <c r="C48" s="21">
         <f t="shared" ref="C48:H48" si="21">C23/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D48" s="21">
         <f t="shared" si="21"/>
@@ -4544,7 +4560,7 @@
       </c>
       <c r="E48" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F48" s="21">
         <f t="shared" si="21"/>
@@ -4552,11 +4568,11 @@
       </c>
       <c r="G48" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="H48" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>10.19080687830688</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -4566,7 +4582,7 @@
       </c>
       <c r="C49" s="21">
         <f t="shared" ref="C49:H49" si="22">C24/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D49" s="21">
         <f t="shared" si="22"/>
@@ -4574,7 +4590,7 @@
       </c>
       <c r="E49" s="21">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F49" s="21">
         <f t="shared" si="22"/>
@@ -4582,11 +4598,11 @@
       </c>
       <c r="G49" s="21">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="H49" s="21">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>10.19080687830688</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -4596,7 +4612,7 @@
       </c>
       <c r="C50" s="21">
         <f t="shared" ref="C50:H50" si="23">C25/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D50" s="21">
         <f t="shared" si="23"/>
@@ -4604,7 +4620,7 @@
       </c>
       <c r="E50" s="21">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F50" s="21">
         <f t="shared" si="23"/>
@@ -4612,11 +4628,11 @@
       </c>
       <c r="G50" s="21">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="H50" s="21">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>10.19080687830688</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -4626,7 +4642,7 @@
       </c>
       <c r="C51" s="21">
         <f t="shared" ref="C51:H51" si="24">C26/C27</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D51" s="21">
         <f t="shared" si="24"/>
@@ -4634,7 +4650,7 @@
       </c>
       <c r="E51" s="21">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F51" s="21">
         <f t="shared" si="24"/>
@@ -4642,11 +4658,11 @@
       </c>
       <c r="G51" s="21">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="H51" s="21">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>10.19080687830688</v>
       </c>
     </row>
   </sheetData>
@@ -4701,7 +4717,7 @@
       </c>
       <c r="C3" s="18">
         <f>'110KV'!C3</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D3" s="18">
         <f>'110KV'!D3</f>
@@ -4709,11 +4725,11 @@
       </c>
       <c r="E3" s="18">
         <f>'110KV'!G3</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="F3" s="18">
         <f>SUM(C3:E3)</f>
-        <v>0</v>
+        <v>1535.5100000000002</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4967,7 +4983,7 @@
       </c>
       <c r="C15" s="11">
         <f>'110KV'!C15</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D15" s="11">
         <f>'110KV'!D15</f>
@@ -4975,11 +4991,11 @@
       </c>
       <c r="E15" s="11">
         <f>'110KV'!G15</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1535.5100000000002</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4989,7 +5005,7 @@
       </c>
       <c r="C16" s="11">
         <f>'110KV'!C16</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D16" s="11">
         <f>'110KV'!D16</f>
@@ -4997,11 +5013,11 @@
       </c>
       <c r="E16" s="11">
         <f>'110KV'!G16</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1535.5100000000002</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5011,7 +5027,7 @@
       </c>
       <c r="C17" s="11">
         <f>'110KV'!C17</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D17" s="11">
         <f>'110KV'!D17</f>
@@ -5019,11 +5035,11 @@
       </c>
       <c r="E17" s="11">
         <f>'110KV'!G17</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1535.5100000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5033,7 +5049,7 @@
       </c>
       <c r="C18" s="11">
         <f>'110KV'!C18</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D18" s="11">
         <f>'110KV'!D18</f>
@@ -5041,11 +5057,11 @@
       </c>
       <c r="E18" s="11">
         <f>'110KV'!G18</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1535.5100000000002</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5055,7 +5071,7 @@
       </c>
       <c r="C19" s="11">
         <f>'110KV'!C19</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D19" s="11">
         <f>'110KV'!D19</f>
@@ -5063,11 +5079,11 @@
       </c>
       <c r="E19" s="11">
         <f>'110KV'!G19</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1535.5100000000002</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5077,7 +5093,7 @@
       </c>
       <c r="C20" s="11">
         <f>'110KV'!C20</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D20" s="11">
         <f>'110KV'!D20</f>
@@ -5085,11 +5101,11 @@
       </c>
       <c r="E20" s="11">
         <f>'110KV'!G20</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1535.5100000000002</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5099,7 +5115,7 @@
       </c>
       <c r="C21" s="11">
         <f>'110KV'!C21</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D21" s="11">
         <f>'110KV'!D21</f>
@@ -5107,11 +5123,11 @@
       </c>
       <c r="E21" s="11">
         <f>'110KV'!G21</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1535.5100000000002</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5121,7 +5137,7 @@
       </c>
       <c r="C22" s="11">
         <f>'110KV'!C22</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D22" s="11">
         <f>'110KV'!D22</f>
@@ -5129,11 +5145,11 @@
       </c>
       <c r="E22" s="11">
         <f>'110KV'!G22</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1535.5100000000002</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5143,7 +5159,7 @@
       </c>
       <c r="C23" s="11">
         <f>'110KV'!C23</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D23" s="11">
         <f>'110KV'!D23</f>
@@ -5151,11 +5167,11 @@
       </c>
       <c r="E23" s="11">
         <f>'110KV'!G23</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1535.5100000000002</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5165,7 +5181,7 @@
       </c>
       <c r="C24" s="11">
         <f>'110KV'!C24</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D24" s="11">
         <f>'110KV'!D24</f>
@@ -5173,11 +5189,11 @@
       </c>
       <c r="E24" s="11">
         <f>'110KV'!G24</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1535.5100000000002</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5187,7 +5203,7 @@
       </c>
       <c r="C25" s="11">
         <f>'110KV'!C25</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D25" s="11">
         <f>'110KV'!D25</f>
@@ -5195,11 +5211,11 @@
       </c>
       <c r="E25" s="11">
         <f>'110KV'!G25</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1535.5100000000002</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5209,7 +5225,7 @@
       </c>
       <c r="C26" s="11">
         <f>'110KV'!C26</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D26" s="11">
         <f>'110KV'!D26</f>
@@ -5217,11 +5233,11 @@
       </c>
       <c r="E26" s="11">
         <f>'110KV'!G26</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1535.5100000000002</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5255,7 +5271,7 @@
       </c>
       <c r="C28" s="14">
         <f>'110KV'!C28</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D28" s="14">
         <f>'110KV'!D28</f>
@@ -5263,11 +5279,11 @@
       </c>
       <c r="E28" s="14">
         <f>'110KV'!G28</f>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="F28" s="14">
         <f>F3/F27</f>
-        <v>0</v>
+        <v>10.224463976561461</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5521,7 +5537,7 @@
       </c>
       <c r="C40" s="21">
         <f>'110KV'!C40</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D40" s="21">
         <f>'110KV'!D40</f>
@@ -5529,11 +5545,11 @@
       </c>
       <c r="E40" s="21">
         <f>'110KV'!G40</f>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="F40" s="21">
         <f>F15/F27</f>
-        <v>0</v>
+        <v>10.224463976561461</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5543,7 +5559,7 @@
       </c>
       <c r="C41" s="21">
         <f>'110KV'!C41</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D41" s="21">
         <f>'110KV'!D41</f>
@@ -5551,11 +5567,11 @@
       </c>
       <c r="E41" s="21">
         <f>'110KV'!G41</f>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="F41" s="21">
         <f>F16/F27</f>
-        <v>0</v>
+        <v>10.224463976561461</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5565,7 +5581,7 @@
       </c>
       <c r="C42" s="21">
         <f>'110KV'!C42</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D42" s="21">
         <f>'110KV'!D42</f>
@@ -5573,11 +5589,11 @@
       </c>
       <c r="E42" s="21">
         <f>'110KV'!G42</f>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="F42" s="21">
         <f>F17/F27</f>
-        <v>0</v>
+        <v>10.224463976561461</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5587,7 +5603,7 @@
       </c>
       <c r="C43" s="21">
         <f>'110KV'!C43</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D43" s="21">
         <f>'110KV'!D43</f>
@@ -5595,11 +5611,11 @@
       </c>
       <c r="E43" s="21">
         <f>'110KV'!G43</f>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="F43" s="21">
         <f>F18/F27</f>
-        <v>0</v>
+        <v>10.224463976561461</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5609,7 +5625,7 @@
       </c>
       <c r="C44" s="21">
         <f>'110KV'!C44</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D44" s="21">
         <f>'110KV'!D44</f>
@@ -5617,11 +5633,11 @@
       </c>
       <c r="E44" s="21">
         <f>'110KV'!G44</f>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="F44" s="21">
         <f>F19/F27</f>
-        <v>0</v>
+        <v>10.224463976561461</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5631,7 +5647,7 @@
       </c>
       <c r="C45" s="21">
         <f>'110KV'!C45</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D45" s="21">
         <f>'110KV'!D45</f>
@@ -5639,11 +5655,11 @@
       </c>
       <c r="E45" s="21">
         <f>'110KV'!G45</f>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="F45" s="21">
         <f>F20/F27</f>
-        <v>0</v>
+        <v>10.224463976561461</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -5653,7 +5669,7 @@
       </c>
       <c r="C46" s="21">
         <f>'110KV'!C46</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D46" s="21">
         <f>'110KV'!D46</f>
@@ -5661,11 +5677,11 @@
       </c>
       <c r="E46" s="21">
         <f>'110KV'!G46</f>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="F46" s="21">
         <f>F21/F27</f>
-        <v>0</v>
+        <v>10.224463976561461</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5675,7 +5691,7 @@
       </c>
       <c r="C47" s="21">
         <f>'110KV'!C47</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D47" s="21">
         <f>'110KV'!D47</f>
@@ -5683,11 +5699,11 @@
       </c>
       <c r="E47" s="21">
         <f>'110KV'!G47</f>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="F47" s="21">
         <f>F22/F27</f>
-        <v>0</v>
+        <v>10.224463976561461</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5697,7 +5713,7 @@
       </c>
       <c r="C48" s="21">
         <f>'110KV'!C48</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D48" s="21">
         <f>'110KV'!D48</f>
@@ -5705,11 +5721,11 @@
       </c>
       <c r="E48" s="21">
         <f>'110KV'!G48</f>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="F48" s="21">
         <f>F23/F27</f>
-        <v>0</v>
+        <v>10.224463976561461</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -5719,7 +5735,7 @@
       </c>
       <c r="C49" s="21">
         <f>'110KV'!C49</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D49" s="21">
         <f>'110KV'!D49</f>
@@ -5727,11 +5743,11 @@
       </c>
       <c r="E49" s="21">
         <f>'110KV'!G49</f>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="F49" s="21">
         <f>F24/F27</f>
-        <v>0</v>
+        <v>10.224463976561461</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -5741,7 +5757,7 @@
       </c>
       <c r="C50" s="21">
         <f>'110KV'!C50</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D50" s="21">
         <f>'110KV'!D50</f>
@@ -5749,11 +5765,11 @@
       </c>
       <c r="E50" s="21">
         <f>'110KV'!G50</f>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="F50" s="21">
         <f>F25/F27</f>
-        <v>0</v>
+        <v>10.224463976561461</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5763,7 +5779,7 @@
       </c>
       <c r="C51" s="21">
         <f>'110KV'!C51</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D51" s="21">
         <f>'110KV'!D51</f>
@@ -5771,11 +5787,11 @@
       </c>
       <c r="E51" s="21">
         <f>'110KV'!G51</f>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="F51" s="21">
         <f>F26/F27</f>
-        <v>0</v>
+        <v>10.224463976561461</v>
       </c>
     </row>
   </sheetData>
@@ -5795,8 +5811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C51" sqref="C51:K51"/>
@@ -5851,7 +5867,7 @@
       </c>
       <c r="C3" s="23">
         <f>所有燃气电厂!C3</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D3" s="23">
         <f>所有燃气电厂!D3</f>
@@ -5859,7 +5875,7 @@
       </c>
       <c r="E3" s="23">
         <f>所有燃气电厂!E3</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F3" s="23">
         <f>所有燃气电厂!F3</f>
@@ -5867,7 +5883,7 @@
       </c>
       <c r="G3" s="23">
         <f>所有燃气电厂!G3</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H3" s="23">
         <f>所有燃气电厂!J3</f>
@@ -5875,11 +5891,11 @@
       </c>
       <c r="I3" s="31">
         <f>SUM(C3:H3)</f>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
       <c r="K3">
         <f>所有燃气电厂!M3</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6309,7 +6325,7 @@
       </c>
       <c r="C15" s="25">
         <f>所有燃气电厂!C15</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D15" s="25">
         <f>所有燃气电厂!D15</f>
@@ -6317,7 +6333,7 @@
       </c>
       <c r="E15" s="25">
         <f>所有燃气电厂!E15</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F15" s="25">
         <f>所有燃气电厂!F15</f>
@@ -6325,7 +6341,7 @@
       </c>
       <c r="G15" s="25">
         <f>所有燃气电厂!G15</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H15" s="25">
         <f>所有燃气电厂!J15</f>
@@ -6333,11 +6349,11 @@
       </c>
       <c r="I15" s="32">
         <f t="shared" ref="I15:I27" si="1">SUM(C15:H15)</f>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
       <c r="K15">
         <f>所有燃气电厂!M15</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6347,7 +6363,7 @@
       </c>
       <c r="C16" s="25">
         <f>所有燃气电厂!C16</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D16" s="25">
         <f>所有燃气电厂!D16</f>
@@ -6355,7 +6371,7 @@
       </c>
       <c r="E16" s="25">
         <f>所有燃气电厂!E16</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F16" s="25">
         <f>所有燃气电厂!F16</f>
@@ -6363,7 +6379,7 @@
       </c>
       <c r="G16" s="25">
         <f>所有燃气电厂!G16</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H16" s="25">
         <f>所有燃气电厂!J16</f>
@@ -6371,11 +6387,11 @@
       </c>
       <c r="I16" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
       <c r="K16">
         <f>所有燃气电厂!M16</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6385,7 +6401,7 @@
       </c>
       <c r="C17" s="25">
         <f>所有燃气电厂!C17</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D17" s="25">
         <f>所有燃气电厂!D17</f>
@@ -6393,7 +6409,7 @@
       </c>
       <c r="E17" s="25">
         <f>所有燃气电厂!E17</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F17" s="25">
         <f>所有燃气电厂!F17</f>
@@ -6401,7 +6417,7 @@
       </c>
       <c r="G17" s="25">
         <f>所有燃气电厂!G17</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H17" s="25">
         <f>所有燃气电厂!J17</f>
@@ -6409,11 +6425,11 @@
       </c>
       <c r="I17" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
       <c r="K17">
         <f>所有燃气电厂!M17</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6423,7 +6439,7 @@
       </c>
       <c r="C18" s="25">
         <f>所有燃气电厂!C18</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D18" s="25">
         <f>所有燃气电厂!D18</f>
@@ -6431,7 +6447,7 @@
       </c>
       <c r="E18" s="25">
         <f>所有燃气电厂!E18</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F18" s="25">
         <f>所有燃气电厂!F18</f>
@@ -6439,7 +6455,7 @@
       </c>
       <c r="G18" s="25">
         <f>所有燃气电厂!G18</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H18" s="25">
         <f>所有燃气电厂!J18</f>
@@ -6447,11 +6463,11 @@
       </c>
       <c r="I18" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
       <c r="K18">
         <f>所有燃气电厂!M18</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6461,7 +6477,7 @@
       </c>
       <c r="C19" s="25">
         <f>所有燃气电厂!C19</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D19" s="25">
         <f>所有燃气电厂!D19</f>
@@ -6469,7 +6485,7 @@
       </c>
       <c r="E19" s="25">
         <f>所有燃气电厂!E19</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F19" s="25">
         <f>所有燃气电厂!F19</f>
@@ -6477,7 +6493,7 @@
       </c>
       <c r="G19" s="25">
         <f>所有燃气电厂!G19</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H19" s="25">
         <f>所有燃气电厂!J19</f>
@@ -6485,11 +6501,11 @@
       </c>
       <c r="I19" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
       <c r="K19">
         <f>所有燃气电厂!M19</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6499,7 +6515,7 @@
       </c>
       <c r="C20" s="25">
         <f>所有燃气电厂!C20</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D20" s="25">
         <f>所有燃气电厂!D20</f>
@@ -6507,7 +6523,7 @@
       </c>
       <c r="E20" s="25">
         <f>所有燃气电厂!E20</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F20" s="25">
         <f>所有燃气电厂!F20</f>
@@ -6515,7 +6531,7 @@
       </c>
       <c r="G20" s="25">
         <f>所有燃气电厂!G20</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H20" s="25">
         <f>所有燃气电厂!J20</f>
@@ -6523,11 +6539,11 @@
       </c>
       <c r="I20" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
       <c r="K20">
         <f>所有燃气电厂!M20</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -6537,7 +6553,7 @@
       </c>
       <c r="C21" s="25">
         <f>所有燃气电厂!C21</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D21" s="25">
         <f>所有燃气电厂!D21</f>
@@ -6545,7 +6561,7 @@
       </c>
       <c r="E21" s="25">
         <f>所有燃气电厂!E21</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F21" s="25">
         <f>所有燃气电厂!F21</f>
@@ -6553,7 +6569,7 @@
       </c>
       <c r="G21" s="25">
         <f>所有燃气电厂!G21</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H21" s="25">
         <f>所有燃气电厂!J21</f>
@@ -6561,11 +6577,11 @@
       </c>
       <c r="I21" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
       <c r="K21">
         <f>所有燃气电厂!M21</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -6575,7 +6591,7 @@
       </c>
       <c r="C22" s="25">
         <f>所有燃气电厂!C22</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D22" s="25">
         <f>所有燃气电厂!D22</f>
@@ -6583,7 +6599,7 @@
       </c>
       <c r="E22" s="25">
         <f>所有燃气电厂!E22</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F22" s="25">
         <f>所有燃气电厂!F22</f>
@@ -6591,7 +6607,7 @@
       </c>
       <c r="G22" s="25">
         <f>所有燃气电厂!G22</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H22" s="25">
         <f>所有燃气电厂!J22</f>
@@ -6599,11 +6615,11 @@
       </c>
       <c r="I22" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
       <c r="K22">
         <f>所有燃气电厂!M22</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -6613,7 +6629,7 @@
       </c>
       <c r="C23" s="25">
         <f>所有燃气电厂!C23</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D23" s="25">
         <f>所有燃气电厂!D23</f>
@@ -6621,7 +6637,7 @@
       </c>
       <c r="E23" s="25">
         <f>所有燃气电厂!E23</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F23" s="25">
         <f>所有燃气电厂!F23</f>
@@ -6629,7 +6645,7 @@
       </c>
       <c r="G23" s="25">
         <f>所有燃气电厂!G23</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H23" s="25">
         <f>所有燃气电厂!J23</f>
@@ -6637,11 +6653,11 @@
       </c>
       <c r="I23" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
       <c r="K23">
         <f>所有燃气电厂!M23</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -6651,7 +6667,7 @@
       </c>
       <c r="C24" s="25">
         <f>所有燃气电厂!C24</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D24" s="25">
         <f>所有燃气电厂!D24</f>
@@ -6659,7 +6675,7 @@
       </c>
       <c r="E24" s="25">
         <f>所有燃气电厂!E24</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F24" s="25">
         <f>所有燃气电厂!F24</f>
@@ -6667,7 +6683,7 @@
       </c>
       <c r="G24" s="25">
         <f>所有燃气电厂!G24</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H24" s="25">
         <f>所有燃气电厂!J24</f>
@@ -6675,11 +6691,11 @@
       </c>
       <c r="I24" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
       <c r="K24">
         <f>所有燃气电厂!M24</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -6689,7 +6705,7 @@
       </c>
       <c r="C25" s="25">
         <f>所有燃气电厂!C25</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D25" s="25">
         <f>所有燃气电厂!D25</f>
@@ -6697,7 +6713,7 @@
       </c>
       <c r="E25" s="25">
         <f>所有燃气电厂!E25</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F25" s="25">
         <f>所有燃气电厂!F25</f>
@@ -6705,7 +6721,7 @@
       </c>
       <c r="G25" s="25">
         <f>所有燃气电厂!G25</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H25" s="25">
         <f>所有燃气电厂!J25</f>
@@ -6713,11 +6729,11 @@
       </c>
       <c r="I25" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
       <c r="K25">
         <f>所有燃气电厂!M25</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -6727,7 +6743,7 @@
       </c>
       <c r="C26" s="25">
         <f>所有燃气电厂!C26</f>
-        <v>0</v>
+        <v>536.85</v>
       </c>
       <c r="D26" s="25">
         <f>所有燃气电厂!D26</f>
@@ -6735,7 +6751,7 @@
       </c>
       <c r="E26" s="25">
         <f>所有燃气电厂!E26</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F26" s="25">
         <f>所有燃气电厂!F26</f>
@@ -6743,7 +6759,7 @@
       </c>
       <c r="G26" s="25">
         <f>所有燃气电厂!G26</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H26" s="25">
         <f>所有燃气电厂!J26</f>
@@ -6751,11 +6767,11 @@
       </c>
       <c r="I26" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2157.1900000000005</v>
       </c>
       <c r="K26">
         <f>所有燃气电厂!M26</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6805,7 +6821,7 @@
       </c>
       <c r="C28" s="38">
         <f>所有燃气电厂!C28</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D28" s="38">
         <f>所有燃气电厂!D28</f>
@@ -6813,7 +6829,7 @@
       </c>
       <c r="E28" s="38">
         <f>所有燃气电厂!E28</f>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F28" s="38">
         <f>所有燃气电厂!F28</f>
@@ -6821,7 +6837,7 @@
       </c>
       <c r="G28" s="38">
         <f>所有燃气电厂!G28</f>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H28" s="38">
         <f>所有燃气电厂!J28</f>
@@ -6829,12 +6845,12 @@
       </c>
       <c r="I28" s="39">
         <f>I3/I27</f>
-        <v>0</v>
+        <v>8.3780876184558046</v>
       </c>
       <c r="J28" s="37"/>
       <c r="K28" s="37">
         <f>所有燃气电厂!M28</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -7275,7 +7291,7 @@
       </c>
       <c r="C40" s="35">
         <f>所有燃气电厂!C40</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D40" s="35">
         <f>所有燃气电厂!D40</f>
@@ -7283,7 +7299,7 @@
       </c>
       <c r="E40" s="35">
         <f>所有燃气电厂!E40</f>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F40" s="35">
         <f>所有燃气电厂!F40</f>
@@ -7291,7 +7307,7 @@
       </c>
       <c r="G40" s="35">
         <f>所有燃气电厂!G40</f>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H40" s="35">
         <f>所有燃气电厂!J40</f>
@@ -7299,12 +7315,12 @@
       </c>
       <c r="I40" s="36">
         <f>I15/I27</f>
-        <v>0</v>
+        <v>8.3780876184558046</v>
       </c>
       <c r="J40" s="37"/>
       <c r="K40" s="37">
         <f>所有燃气电厂!M40</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -7314,7 +7330,7 @@
       </c>
       <c r="C41" s="35">
         <f>所有燃气电厂!C41</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D41" s="35">
         <f>所有燃气电厂!D41</f>
@@ -7322,7 +7338,7 @@
       </c>
       <c r="E41" s="35">
         <f>所有燃气电厂!E41</f>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F41" s="35">
         <f>所有燃气电厂!F41</f>
@@ -7330,7 +7346,7 @@
       </c>
       <c r="G41" s="35">
         <f>所有燃气电厂!G41</f>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H41" s="35">
         <f>所有燃气电厂!J41</f>
@@ -7338,12 +7354,12 @@
       </c>
       <c r="I41" s="36">
         <f>I16/I27</f>
-        <v>0</v>
+        <v>8.3780876184558046</v>
       </c>
       <c r="J41" s="37"/>
       <c r="K41" s="37">
         <f>所有燃气电厂!M41</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -7353,7 +7369,7 @@
       </c>
       <c r="C42" s="35">
         <f>所有燃气电厂!C42</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D42" s="35">
         <f>所有燃气电厂!D42</f>
@@ -7361,7 +7377,7 @@
       </c>
       <c r="E42" s="35">
         <f>所有燃气电厂!E42</f>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F42" s="35">
         <f>所有燃气电厂!F42</f>
@@ -7369,7 +7385,7 @@
       </c>
       <c r="G42" s="35">
         <f>所有燃气电厂!G42</f>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H42" s="35">
         <f>所有燃气电厂!J42</f>
@@ -7377,12 +7393,12 @@
       </c>
       <c r="I42" s="36">
         <f>I17/I27</f>
-        <v>0</v>
+        <v>8.3780876184558046</v>
       </c>
       <c r="J42" s="37"/>
       <c r="K42" s="37">
         <f>所有燃气电厂!M42</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -7392,7 +7408,7 @@
       </c>
       <c r="C43" s="35">
         <f>所有燃气电厂!C43</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D43" s="35">
         <f>所有燃气电厂!D43</f>
@@ -7400,7 +7416,7 @@
       </c>
       <c r="E43" s="35">
         <f>所有燃气电厂!E43</f>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F43" s="35">
         <f>所有燃气电厂!F43</f>
@@ -7408,7 +7424,7 @@
       </c>
       <c r="G43" s="35">
         <f>所有燃气电厂!G43</f>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H43" s="35">
         <f>所有燃气电厂!J43</f>
@@ -7416,12 +7432,12 @@
       </c>
       <c r="I43" s="36">
         <f>I18/I27</f>
-        <v>0</v>
+        <v>8.3780876184558046</v>
       </c>
       <c r="J43" s="37"/>
       <c r="K43" s="37">
         <f>所有燃气电厂!M43</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -7431,7 +7447,7 @@
       </c>
       <c r="C44" s="35">
         <f>所有燃气电厂!C44</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D44" s="35">
         <f>所有燃气电厂!D44</f>
@@ -7439,7 +7455,7 @@
       </c>
       <c r="E44" s="35">
         <f>所有燃气电厂!E44</f>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F44" s="35">
         <f>所有燃气电厂!F44</f>
@@ -7447,7 +7463,7 @@
       </c>
       <c r="G44" s="35">
         <f>所有燃气电厂!G44</f>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H44" s="35">
         <f>所有燃气电厂!J44</f>
@@ -7455,12 +7471,12 @@
       </c>
       <c r="I44" s="36">
         <f>I19/I27</f>
-        <v>0</v>
+        <v>8.3780876184558046</v>
       </c>
       <c r="J44" s="37"/>
       <c r="K44" s="37">
         <f>所有燃气电厂!M44</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -7470,7 +7486,7 @@
       </c>
       <c r="C45" s="35">
         <f>所有燃气电厂!C45</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D45" s="35">
         <f>所有燃气电厂!D45</f>
@@ -7478,7 +7494,7 @@
       </c>
       <c r="E45" s="35">
         <f>所有燃气电厂!E45</f>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F45" s="35">
         <f>所有燃气电厂!F45</f>
@@ -7486,7 +7502,7 @@
       </c>
       <c r="G45" s="35">
         <f>所有燃气电厂!G45</f>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H45" s="35">
         <f>所有燃气电厂!J45</f>
@@ -7494,12 +7510,12 @@
       </c>
       <c r="I45" s="36">
         <f>I20/I27</f>
-        <v>0</v>
+        <v>8.3780876184558046</v>
       </c>
       <c r="J45" s="37"/>
       <c r="K45" s="37">
         <f>所有燃气电厂!M45</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -7509,7 +7525,7 @@
       </c>
       <c r="C46" s="35">
         <f>所有燃气电厂!C46</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D46" s="35">
         <f>所有燃气电厂!D46</f>
@@ -7517,7 +7533,7 @@
       </c>
       <c r="E46" s="35">
         <f>所有燃气电厂!E46</f>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F46" s="35">
         <f>所有燃气电厂!F46</f>
@@ -7525,7 +7541,7 @@
       </c>
       <c r="G46" s="35">
         <f>所有燃气电厂!G46</f>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H46" s="35">
         <f>所有燃气电厂!J46</f>
@@ -7533,12 +7549,12 @@
       </c>
       <c r="I46" s="36">
         <f>I21/I27</f>
-        <v>0</v>
+        <v>8.3780876184558046</v>
       </c>
       <c r="J46" s="37"/>
       <c r="K46" s="37">
         <f>所有燃气电厂!M46</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -7548,7 +7564,7 @@
       </c>
       <c r="C47" s="35">
         <f>所有燃气电厂!C47</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D47" s="35">
         <f>所有燃气电厂!D47</f>
@@ -7556,7 +7572,7 @@
       </c>
       <c r="E47" s="35">
         <f>所有燃气电厂!E47</f>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F47" s="35">
         <f>所有燃气电厂!F47</f>
@@ -7564,7 +7580,7 @@
       </c>
       <c r="G47" s="35">
         <f>所有燃气电厂!G47</f>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H47" s="35">
         <f>所有燃气电厂!J47</f>
@@ -7572,12 +7588,12 @@
       </c>
       <c r="I47" s="36">
         <f>I22/I27</f>
-        <v>0</v>
+        <v>8.3780876184558046</v>
       </c>
       <c r="J47" s="37"/>
       <c r="K47" s="37">
         <f>所有燃气电厂!M47</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -7587,7 +7603,7 @@
       </c>
       <c r="C48" s="35">
         <f>所有燃气电厂!C48</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D48" s="35">
         <f>所有燃气电厂!D48</f>
@@ -7595,7 +7611,7 @@
       </c>
       <c r="E48" s="35">
         <f>所有燃气电厂!E48</f>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F48" s="35">
         <f>所有燃气电厂!F48</f>
@@ -7603,7 +7619,7 @@
       </c>
       <c r="G48" s="35">
         <f>所有燃气电厂!G48</f>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H48" s="35">
         <f>所有燃气电厂!J48</f>
@@ -7611,12 +7627,12 @@
       </c>
       <c r="I48" s="36">
         <f>I23/I27</f>
-        <v>0</v>
+        <v>8.3780876184558046</v>
       </c>
       <c r="J48" s="37"/>
       <c r="K48" s="37">
         <f>所有燃气电厂!M48</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -7626,7 +7642,7 @@
       </c>
       <c r="C49" s="35">
         <f>所有燃气电厂!C49</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D49" s="35">
         <f>所有燃气电厂!D49</f>
@@ -7634,7 +7650,7 @@
       </c>
       <c r="E49" s="35">
         <f>所有燃气电厂!E49</f>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F49" s="35">
         <f>所有燃气电厂!F49</f>
@@ -7642,7 +7658,7 @@
       </c>
       <c r="G49" s="35">
         <f>所有燃气电厂!G49</f>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H49" s="35">
         <f>所有燃气电厂!J49</f>
@@ -7650,12 +7666,12 @@
       </c>
       <c r="I49" s="36">
         <f>I24/I27</f>
-        <v>0</v>
+        <v>8.3780876184558046</v>
       </c>
       <c r="J49" s="37"/>
       <c r="K49" s="37">
         <f>所有燃气电厂!M49</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -7665,7 +7681,7 @@
       </c>
       <c r="C50" s="35">
         <f>所有燃气电厂!C50</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D50" s="35">
         <f>所有燃气电厂!D50</f>
@@ -7673,7 +7689,7 @@
       </c>
       <c r="E50" s="35">
         <f>所有燃气电厂!E50</f>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F50" s="35">
         <f>所有燃气电厂!F50</f>
@@ -7681,7 +7697,7 @@
       </c>
       <c r="G50" s="35">
         <f>所有燃气电厂!G50</f>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H50" s="35">
         <f>所有燃气电厂!J50</f>
@@ -7689,12 +7705,12 @@
       </c>
       <c r="I50" s="36">
         <f>I25/I27</f>
-        <v>0</v>
+        <v>8.3780876184558046</v>
       </c>
       <c r="J50" s="37"/>
       <c r="K50" s="37">
         <f>所有燃气电厂!M50</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -7704,7 +7720,7 @@
       </c>
       <c r="C51" s="35">
         <f>所有燃气电厂!C51</f>
-        <v>0</v>
+        <v>14.636041439476555</v>
       </c>
       <c r="D51" s="35">
         <f>所有燃气电厂!D51</f>
@@ -7712,7 +7728,7 @@
       </c>
       <c r="E51" s="35">
         <f>所有燃气电厂!E51</f>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F51" s="35">
         <f>所有燃气电厂!F51</f>
@@ -7720,7 +7736,7 @@
       </c>
       <c r="G51" s="35">
         <f>所有燃气电厂!G51</f>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H51" s="35">
         <f>所有燃气电厂!J51</f>
@@ -7728,12 +7744,12 @@
       </c>
       <c r="I51" s="36">
         <f>I26/I27</f>
-        <v>0</v>
+        <v>8.3780876184558046</v>
       </c>
       <c r="J51" s="37"/>
       <c r="K51" s="37">
         <f>所有燃气电厂!M51</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
     </row>
   </sheetData>
@@ -14140,7 +14156,7 @@
       </c>
       <c r="E28" s="14">
         <f>'110KV'!E28</f>
-        <v>0</v>
+        <v>25.583539094650206</v>
       </c>
       <c r="F28" s="14">
         <f>'110KV'!F28</f>
@@ -14148,7 +14164,7 @@
       </c>
       <c r="G28" s="14">
         <f>'110KV'!G28</f>
-        <v>0</v>
+        <v>16.784201680672272</v>
       </c>
       <c r="H28" s="14">
         <f>H3/H26</f>
@@ -15154,7 +15170,7 @@
       </c>
       <c r="E3" s="18">
         <f>所有燃气电厂!M3</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F3" s="18">
         <f>所有燃气电厂!F3</f>
@@ -15162,11 +15178,11 @@
       </c>
       <c r="G3" s="18">
         <f>所有燃气电厂!G3</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H3" s="18">
         <f>SUM(C3:G3)</f>
-        <v>10471.3344</v>
+        <v>12091.6744</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -15501,7 +15517,7 @@
       </c>
       <c r="E15" s="10">
         <f>所有燃气电厂!M15</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F15" s="11">
         <f>F3</f>
@@ -15509,11 +15525,11 @@
       </c>
       <c r="G15" s="11">
         <f>G3</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H15" s="11">
         <f>SUM(C15:G15)</f>
-        <v>10471.3344</v>
+        <v>12091.6744</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -15531,7 +15547,7 @@
       </c>
       <c r="E16" s="10">
         <f>所有燃气电厂!M16</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F16" s="11">
         <f>F3+F4</f>
@@ -15539,11 +15555,11 @@
       </c>
       <c r="G16" s="11">
         <f>G3+G4</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="0"/>
-        <v>16814.295699999999</v>
+        <v>18434.635699999999</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -15561,7 +15577,7 @@
       </c>
       <c r="E17" s="10">
         <f>所有燃气电厂!M17</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F17" s="11">
         <f>F3+F4+F5</f>
@@ -15569,11 +15585,11 @@
       </c>
       <c r="G17" s="11">
         <f>G3+G4+G5</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="0"/>
-        <v>24567.046499999997</v>
+        <v>26187.386499999997</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -15591,7 +15607,7 @@
       </c>
       <c r="E18" s="10">
         <f>所有燃气电厂!M18</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F18" s="11">
         <f>F3+F4+F5+F6</f>
@@ -15599,11 +15615,11 @@
       </c>
       <c r="G18" s="11">
         <f>G3+G4+G5+G6</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v>32780.871099999997</v>
+        <v>34401.2111</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -15621,7 +15637,7 @@
       </c>
       <c r="E19" s="10">
         <f>所有燃气电厂!M19</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F19" s="11">
         <f>F3+F4+F5+F6+F7</f>
@@ -15629,11 +15645,11 @@
       </c>
       <c r="G19" s="11">
         <f>G3+G4+G5+G6+G7</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="0"/>
-        <v>32780.871099999997</v>
+        <v>34401.2111</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -15651,7 +15667,7 @@
       </c>
       <c r="E20" s="10">
         <f>所有燃气电厂!M20</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F20" s="11">
         <f>F3+F4+F5+F6+F7+F8</f>
@@ -15659,11 +15675,11 @@
       </c>
       <c r="G20" s="11">
         <f>G3+G4+G5+G6+G7+G8</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>32780.871099999997</v>
+        <v>34401.2111</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -15681,7 +15697,7 @@
       </c>
       <c r="E21" s="10">
         <f>所有燃气电厂!M21</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F21" s="11">
         <f>F3+F4+F5+F6+F7+F8+F9</f>
@@ -15689,11 +15705,11 @@
       </c>
       <c r="G21" s="11">
         <f>G3+G4+G5+G6+G7+G8+G9</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="0"/>
-        <v>32780.871099999997</v>
+        <v>34401.2111</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -15711,7 +15727,7 @@
       </c>
       <c r="E22" s="10">
         <f>所有燃气电厂!M22</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F22" s="11">
         <f>SUM(F3:F10)</f>
@@ -15719,11 +15735,11 @@
       </c>
       <c r="G22" s="11">
         <f>SUM(G3:G10)</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="0"/>
-        <v>32780.871099999997</v>
+        <v>34401.2111</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -15741,7 +15757,7 @@
       </c>
       <c r="E23" s="10">
         <f>所有燃气电厂!M23</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F23" s="11">
         <f>SUM(F3:F11)</f>
@@ -15749,11 +15765,11 @@
       </c>
       <c r="G23" s="11">
         <f>SUM(G3:G11)</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="0"/>
-        <v>32780.871099999997</v>
+        <v>34401.2111</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -15771,7 +15787,7 @@
       </c>
       <c r="E24" s="10">
         <f>所有燃气电厂!M24</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F24" s="11">
         <f>SUM(F3:F12)</f>
@@ -15779,11 +15795,11 @@
       </c>
       <c r="G24" s="11">
         <f>SUM(G3:G12)</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="0"/>
-        <v>32780.871099999997</v>
+        <v>34401.2111</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -15801,7 +15817,7 @@
       </c>
       <c r="E25" s="10">
         <f>所有燃气电厂!M25</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F25" s="11">
         <f>SUM(F3:F13)</f>
@@ -15809,11 +15825,11 @@
       </c>
       <c r="G25" s="11">
         <f>SUM(G3:G13)</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="0"/>
-        <v>32780.871099999997</v>
+        <v>34401.2111</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -15831,7 +15847,7 @@
       </c>
       <c r="E26" s="10">
         <f>所有燃气电厂!M26</f>
-        <v>0</v>
+        <v>621.68000000000006</v>
       </c>
       <c r="F26" s="11">
         <f>SUM(F3:F14)</f>
@@ -15839,11 +15855,11 @@
       </c>
       <c r="G26" s="11">
         <f>SUM(G3:G14)</f>
-        <v>0</v>
+        <v>998.66000000000008</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="0"/>
-        <v>32780.871099999997</v>
+        <v>34401.2111</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -15890,7 +15906,7 @@
       </c>
       <c r="E28" s="14">
         <f>所有燃气电厂!M28</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="F28" s="14">
         <f t="shared" si="1"/>
@@ -15898,11 +15914,11 @@
       </c>
       <c r="G28" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="1"/>
-        <v>40.668535031847128</v>
+        <v>46.961606338356376</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -16252,7 +16268,7 @@
       </c>
       <c r="E40" s="42">
         <f>所有燃气电厂!M40</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="F40" s="21">
         <f t="shared" si="13"/>
@@ -16260,11 +16276,11 @@
       </c>
       <c r="G40" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H40" s="21">
         <f t="shared" si="13"/>
-        <v>40.668535031847128</v>
+        <v>46.961606338356376</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -16282,7 +16298,7 @@
       </c>
       <c r="E41" s="42">
         <f>所有燃气电厂!M41</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="F41" s="21">
         <f t="shared" si="14"/>
@@ -16290,11 +16306,11 @@
       </c>
       <c r="G41" s="21">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H41" s="21">
         <f t="shared" si="14"/>
-        <v>65.303307829734337</v>
+        <v>71.596379136243584</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -16312,7 +16328,7 @@
       </c>
       <c r="E42" s="42">
         <f>所有燃气电厂!M42</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="F42" s="21">
         <f t="shared" si="15"/>
@@ -16320,11 +16336,11 @@
       </c>
       <c r="G42" s="21">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H42" s="21">
         <f t="shared" si="15"/>
-        <v>95.413416576044725</v>
+        <v>101.70648788255397</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -16342,7 +16358,7 @@
       </c>
       <c r="E43" s="42">
         <f>所有燃气电厂!M43</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="F43" s="21">
         <f t="shared" si="16"/>
@@ -16350,11 +16366,11 @@
       </c>
       <c r="G43" s="21">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H43" s="21">
         <f t="shared" si="16"/>
-        <v>127.31424227124435</v>
+        <v>133.60731357775362</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -16372,7 +16388,7 @@
       </c>
       <c r="E44" s="42">
         <f>所有燃气电厂!M44</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="F44" s="21">
         <f t="shared" si="17"/>
@@ -16380,11 +16396,11 @@
       </c>
       <c r="G44" s="21">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H44" s="21">
         <f t="shared" si="17"/>
-        <v>127.31424227124435</v>
+        <v>133.60731357775362</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -16402,7 +16418,7 @@
       </c>
       <c r="E45" s="42">
         <f>所有燃气电厂!M45</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="F45" s="21">
         <f t="shared" si="18"/>
@@ -16410,11 +16426,11 @@
       </c>
       <c r="G45" s="21">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H45" s="21">
         <f t="shared" si="18"/>
-        <v>127.31424227124435</v>
+        <v>133.60731357775362</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -16432,7 +16448,7 @@
       </c>
       <c r="E46" s="42">
         <f>所有燃气电厂!M46</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="F46" s="21">
         <f t="shared" si="19"/>
@@ -16440,11 +16456,11 @@
       </c>
       <c r="G46" s="21">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H46" s="21">
         <f t="shared" si="19"/>
-        <v>127.31424227124435</v>
+        <v>133.60731357775362</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -16462,7 +16478,7 @@
       </c>
       <c r="E47" s="42">
         <f>所有燃气电厂!M47</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="F47" s="21">
         <f t="shared" si="20"/>
@@ -16470,11 +16486,11 @@
       </c>
       <c r="G47" s="21">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H47" s="21">
         <f t="shared" si="20"/>
-        <v>127.31424227124435</v>
+        <v>133.60731357775362</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -16492,7 +16508,7 @@
       </c>
       <c r="E48" s="42">
         <f>所有燃气电厂!M48</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="F48" s="21">
         <f t="shared" si="21"/>
@@ -16500,11 +16516,11 @@
       </c>
       <c r="G48" s="21">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H48" s="21">
         <f t="shared" si="21"/>
-        <v>127.31424227124435</v>
+        <v>133.60731357775362</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -16522,7 +16538,7 @@
       </c>
       <c r="E49" s="42">
         <f>所有燃气电厂!M49</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="F49" s="21">
         <f t="shared" si="22"/>
@@ -16530,11 +16546,11 @@
       </c>
       <c r="G49" s="21">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H49" s="21">
         <f t="shared" si="22"/>
-        <v>127.31424227124435</v>
+        <v>133.60731357775362</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -16552,7 +16568,7 @@
       </c>
       <c r="E50" s="42">
         <f>所有燃气电厂!M50</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="F50" s="21">
         <f t="shared" si="23"/>
@@ -16560,11 +16576,11 @@
       </c>
       <c r="G50" s="21">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H50" s="21">
         <f t="shared" si="23"/>
-        <v>127.31424227124435</v>
+        <v>133.60731357775362</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -16582,7 +16598,7 @@
       </c>
       <c r="E51" s="42">
         <f>所有燃气电厂!M51</f>
-        <v>0</v>
+        <v>9.1021961932650086</v>
       </c>
       <c r="F51" s="21">
         <f t="shared" si="24"/>
@@ -16590,11 +16606,11 @@
       </c>
       <c r="G51" s="21">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>16.29135399673736</v>
       </c>
       <c r="H51" s="21">
         <f t="shared" si="24"/>
-        <v>127.31424227124435</v>
+        <v>133.60731357775362</v>
       </c>
     </row>
   </sheetData>
